--- a/hyungbong.xlsx
+++ b/hyungbong.xlsx
@@ -1,37 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinki\PycharmProjects\kosdaq_advisor\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73301D37-04C7-4F60-8152-2ABEB59AE1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="154">
   <si>
     <t>Close</t>
   </si>
@@ -45,6 +28,9 @@
     <t>Low</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>max_return</t>
   </si>
   <si>
@@ -54,9 +40,6 @@
     <t>select_dt</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>2023-01-02</t>
   </si>
   <si>
@@ -150,6 +133,12 @@
     <t>2023-02-15</t>
   </si>
   <si>
+    <t>2023-02-16</t>
+  </si>
+  <si>
+    <t>2023-02-17</t>
+  </si>
+  <si>
     <t>CBI</t>
   </si>
   <si>
@@ -469,20 +458,35 @@
   </si>
   <si>
     <t>휴젤</t>
+  </si>
+  <si>
+    <t>라온피플</t>
+  </si>
+  <si>
+    <t>솔트룩스</t>
+  </si>
+  <si>
+    <t>엔에스</t>
+  </si>
+  <si>
+    <t>이엠텍</t>
+  </si>
+  <si>
+    <t>키이스트</t>
+  </si>
+  <si>
+    <t>엘컴텍</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0%"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -490,28 +494,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -548,42 +531,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -625,7 +591,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -657,27 +623,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -709,24 +657,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -902,21 +832,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I137"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H136" sqref="H136"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -934,15 +862,21 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>426</v>
@@ -956,21 +890,23 @@
       <c r="F2">
         <v>376</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2">
+        <v>398</v>
+      </c>
+      <c r="I2">
         <v>1.011600928074246</v>
       </c>
-      <c r="H2" s="3">
-        <v>0.87238979118329463</v>
-      </c>
-      <c r="I2" s="4">
-        <f>G2-H2</f>
-        <v>0.13921113689095133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
+      <c r="J2">
+        <v>0.8723897911832946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>630</v>
@@ -984,21 +920,23 @@
       <c r="F3">
         <v>590</v>
       </c>
-      <c r="G3" s="3">
-        <v>1.0175438596491231</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.94098883572567782</v>
-      </c>
-      <c r="I3" s="4">
-        <f t="shared" ref="I3:I66" si="0">G3-H3</f>
-        <v>7.6555023923445265E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3">
+        <v>607</v>
+      </c>
+      <c r="I3">
+        <v>1.017543859649123</v>
+      </c>
+      <c r="J3">
+        <v>0.9409888357256778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>9770</v>
@@ -1012,23 +950,25 @@
       <c r="F4">
         <v>9560</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4">
+        <v>11100</v>
+      </c>
+      <c r="I4">
         <v>1.25</v>
       </c>
-      <c r="H4" s="3">
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="I4" s="4">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>1883</v>
@@ -1042,21 +982,23 @@
       <c r="F5">
         <v>1735</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5">
+        <v>2715</v>
+      </c>
+      <c r="I5">
         <v>1.638356164383562</v>
       </c>
-      <c r="H5" s="3">
+      <c r="J5">
         <v>0.9506849315068493</v>
       </c>
-      <c r="I5" s="4">
-        <f t="shared" si="0"/>
-        <v>0.68767123287671272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>15700</v>
@@ -1070,21 +1012,23 @@
       <c r="F6">
         <v>14600</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6">
+        <v>14800</v>
+      </c>
+      <c r="I6">
         <v>1.054662379421222</v>
       </c>
-      <c r="H6" s="3">
-        <v>0.93890675241157562</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.11575562700964637</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
+      <c r="J6">
+        <v>0.9389067524115756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>4705</v>
@@ -1098,21 +1042,23 @@
       <c r="F7">
         <v>4675</v>
       </c>
-      <c r="G7" s="3">
-        <v>1.1489361702127661</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.99468085106382975</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.15425531914893631</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7">
+        <v>5100</v>
+      </c>
+      <c r="I7">
+        <v>1.148936170212766</v>
+      </c>
+      <c r="J7">
+        <v>0.9946808510638298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>3515</v>
@@ -1126,21 +1072,23 @@
       <c r="F8">
         <v>3445</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8">
+        <v>3895</v>
+      </c>
+      <c r="I8">
         <v>1.117142857142857</v>
       </c>
-      <c r="H8" s="3">
-        <v>0.98428571428571432</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.13285714285714267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
+      <c r="J8">
+        <v>0.9842857142857143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>5880</v>
@@ -1154,21 +1102,23 @@
       <c r="F9">
         <v>5600</v>
       </c>
-      <c r="G9" s="3">
-        <v>1.0171821305841919</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0.96219931271477666</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="0"/>
-        <v>5.4982817869415279E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9">
+        <v>5720</v>
+      </c>
+      <c r="I9">
+        <v>1.017182130584192</v>
+      </c>
+      <c r="J9">
+        <v>0.9621993127147767</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>4910</v>
@@ -1182,21 +1132,23 @@
       <c r="F10">
         <v>4680</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10">
+        <v>5020</v>
+      </c>
+      <c r="I10">
         <v>1.071207430340557</v>
       </c>
-      <c r="H10" s="3">
-        <v>0.96594427244582048</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.1052631578947365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
+      <c r="J10">
+        <v>0.9659442724458205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <v>5320</v>
@@ -1210,21 +1162,23 @@
       <c r="F11">
         <v>4510</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>5060</v>
+      </c>
+      <c r="I11">
         <v>1.120300751879699</v>
       </c>
-      <c r="H11" s="3">
-        <v>0.84774436090225569</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.27255639097744333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
+      <c r="J11">
+        <v>0.8477443609022557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12">
         <v>4080</v>
@@ -1238,21 +1192,23 @@
       <c r="F12">
         <v>3775</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12">
+        <v>4255</v>
+      </c>
+      <c r="I12">
         <v>1.114143920595533</v>
       </c>
-      <c r="H12" s="3">
-        <v>0.93672456575682383</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.17741935483870919</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
+      <c r="J12">
+        <v>0.9367245657568238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C13">
         <v>356</v>
@@ -1266,23 +1222,25 @@
       <c r="F13">
         <v>349</v>
       </c>
-      <c r="G13" s="3">
-        <v>1.2234957020057311</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13">
+        <v>384</v>
+      </c>
+      <c r="I13">
+        <v>1.223495702005731</v>
+      </c>
+      <c r="J13">
         <v>1</v>
       </c>
-      <c r="I13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.2234957020057311</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14">
         <v>1750</v>
@@ -1296,21 +1254,23 @@
       <c r="F14">
         <v>1615</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14">
+        <v>1705</v>
+      </c>
+      <c r="I14">
         <v>1</v>
       </c>
-      <c r="H14" s="3">
-        <v>0.91501416430594906</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="0"/>
-        <v>8.4985835694050937E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
+      <c r="J14">
+        <v>0.9150141643059491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15">
         <v>8410</v>
@@ -1324,21 +1284,23 @@
       <c r="F15">
         <v>8300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15">
+        <v>8720</v>
+      </c>
+      <c r="I15">
         <v>1.036817102137767</v>
       </c>
-      <c r="H15" s="3">
-        <v>0.98574821852731587</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="0"/>
-        <v>5.1068883610451143E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
+      <c r="J15">
+        <v>0.9857482185273159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C16">
         <v>5330</v>
@@ -1352,21 +1314,23 @@
       <c r="F16">
         <v>5250</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16">
+        <v>5500</v>
+      </c>
+      <c r="I16">
         <v>1.091932457786116</v>
       </c>
-      <c r="H16" s="3">
-        <v>0.98499061913696062</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.10694183864915541</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
+      <c r="J16">
+        <v>0.9849906191369606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C17">
         <v>2505</v>
@@ -1380,21 +1344,23 @@
       <c r="F17">
         <v>2565</v>
       </c>
-      <c r="G17" s="3">
-        <v>1.1961165048543689</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0.99611650485436898</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="0"/>
-        <v>0.19999999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17">
+        <v>2860</v>
+      </c>
+      <c r="I17">
+        <v>1.196116504854369</v>
+      </c>
+      <c r="J17">
+        <v>0.996116504854369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C18">
         <v>1295</v>
@@ -1408,21 +1374,23 @@
       <c r="F18">
         <v>1270</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18">
+        <v>1380</v>
+      </c>
+      <c r="I18">
         <v>1.095785440613027</v>
       </c>
-      <c r="H18" s="3">
-        <v>0.97318007662835249</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="0"/>
-        <v>0.12260536398467448</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
+      <c r="J18">
+        <v>0.9731800766283525</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C19">
         <v>2505</v>
@@ -1436,21 +1404,23 @@
       <c r="F19">
         <v>2405</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19">
+        <v>2600</v>
+      </c>
+      <c r="I19">
         <v>1.04950495049505</v>
       </c>
-      <c r="H19" s="3">
-        <v>0.95247524752475243</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="0"/>
-        <v>9.702970297029756E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="2"/>
+      <c r="J19">
+        <v>0.9524752475247524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C20">
         <v>16100</v>
@@ -1464,21 +1434,23 @@
       <c r="F20">
         <v>15950</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20">
+        <v>17000</v>
+      </c>
+      <c r="I20">
         <v>1.05521472392638</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20">
         <v>0.9785276073619632</v>
       </c>
-      <c r="I20" s="4">
-        <f t="shared" si="0"/>
-        <v>7.6687116564416846E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="2"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C21">
         <v>6170</v>
@@ -1492,21 +1464,23 @@
       <c r="F21">
         <v>5840</v>
       </c>
-      <c r="G21" s="3">
-        <v>1.0354838709677421</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21">
+        <v>6340</v>
+      </c>
+      <c r="I21">
+        <v>1.035483870967742</v>
+      </c>
+      <c r="J21">
         <v>0.9419354838709677</v>
       </c>
-      <c r="I21" s="4">
-        <f t="shared" si="0"/>
-        <v>9.3548387096774377E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="2"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C22">
         <v>13900</v>
@@ -1520,21 +1494,23 @@
       <c r="F22">
         <v>13300</v>
       </c>
-      <c r="G22" s="3">
-        <v>1.0716845878136201</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0.95340501792114696</v>
-      </c>
-      <c r="I22" s="4">
-        <f t="shared" si="0"/>
-        <v>0.11827956989247312</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="2"/>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22">
+        <v>14500</v>
+      </c>
+      <c r="I22">
+        <v>1.07168458781362</v>
+      </c>
+      <c r="J22">
+        <v>0.953405017921147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C23">
         <v>3515</v>
@@ -1548,23 +1524,25 @@
       <c r="F23">
         <v>3410</v>
       </c>
-      <c r="G23" s="3">
-        <v>1.0815450643776821</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0.97567954220314734</v>
-      </c>
-      <c r="I23" s="4">
-        <f t="shared" si="0"/>
-        <v>0.10586552217453471</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23">
+        <v>3620</v>
+      </c>
+      <c r="I23">
+        <v>1.081545064377682</v>
+      </c>
+      <c r="J23">
+        <v>0.9756795422031473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C24">
         <v>3870</v>
@@ -1578,21 +1556,23 @@
       <c r="F24">
         <v>3800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24">
+        <v>4135</v>
+      </c>
+      <c r="I24">
         <v>1.079487179487179</v>
       </c>
-      <c r="H24" s="3">
-        <v>0.97435897435897434</v>
-      </c>
-      <c r="I24" s="4">
-        <f t="shared" si="0"/>
-        <v>0.10512820512820464</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="2"/>
+      <c r="J24">
+        <v>0.9743589743589743</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C25">
         <v>627</v>
@@ -1606,21 +1586,23 @@
       <c r="F25">
         <v>613</v>
       </c>
-      <c r="G25" s="3">
-        <v>1.2153110047846889</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0.97767145135566191</v>
-      </c>
-      <c r="I25" s="4">
-        <f t="shared" si="0"/>
-        <v>0.23763955342902698</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="2"/>
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25">
+        <v>666</v>
+      </c>
+      <c r="I25">
+        <v>1.215311004784689</v>
+      </c>
+      <c r="J25">
+        <v>0.9776714513556619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C26">
         <v>2555</v>
@@ -1634,21 +1616,23 @@
       <c r="F26">
         <v>2535</v>
       </c>
-      <c r="G26" s="3">
-        <v>1.1203155818540429</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="G26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26">
+        <v>2685</v>
+      </c>
+      <c r="I26">
+        <v>1.120315581854043</v>
+      </c>
+      <c r="J26">
         <v>1</v>
       </c>
-      <c r="I26" s="4">
-        <f t="shared" si="0"/>
-        <v>0.1203155818540429</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="2"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C27">
         <v>2445</v>
@@ -1662,21 +1646,23 @@
       <c r="F27">
         <v>2405</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27">
+        <v>3290</v>
+      </c>
+      <c r="I27">
         <v>1.380368098159509</v>
       </c>
-      <c r="H27" s="3">
-        <v>0.98364008179959095</v>
-      </c>
-      <c r="I27" s="4">
-        <f t="shared" si="0"/>
-        <v>0.39672801635991806</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="2"/>
+      <c r="J27">
+        <v>0.9836400817995909</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C28">
         <v>5140</v>
@@ -1690,21 +1676,23 @@
       <c r="F28">
         <v>5030</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28">
+        <v>5700</v>
+      </c>
+      <c r="I28">
         <v>1.254863813229572</v>
       </c>
-      <c r="H28" s="3">
-        <v>0.97859922178988323</v>
-      </c>
-      <c r="I28" s="4">
-        <f t="shared" si="0"/>
-        <v>0.27626459143968873</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="2"/>
+      <c r="J28">
+        <v>0.9785992217898832</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C29">
         <v>4455</v>
@@ -1718,21 +1706,23 @@
       <c r="F29">
         <v>4385</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29">
+        <v>4965</v>
+      </c>
+      <c r="I29">
         <v>1.182022471910112</v>
       </c>
-      <c r="H29" s="3">
-        <v>0.98539325842696635</v>
-      </c>
-      <c r="I29" s="4">
-        <f t="shared" si="0"/>
-        <v>0.19662921348314566</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="2"/>
+      <c r="J29">
+        <v>0.9853932584269663</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C30">
         <v>1210</v>
@@ -1746,21 +1736,23 @@
       <c r="F30">
         <v>1195</v>
       </c>
-      <c r="G30" s="3">
-        <v>1.1625000000000001</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0.99583333333333335</v>
-      </c>
-      <c r="I30" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666674</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="2"/>
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30">
+        <v>1260</v>
+      </c>
+      <c r="I30">
+        <v>1.1625</v>
+      </c>
+      <c r="J30">
+        <v>0.9958333333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C31">
         <v>5310</v>
@@ -1774,23 +1766,25 @@
       <c r="F31">
         <v>5340</v>
       </c>
-      <c r="G31" s="3">
-        <v>1.2891344383057091</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0.98342541436464093</v>
-      </c>
-      <c r="I31" s="4">
-        <f t="shared" si="0"/>
-        <v>0.30570902394106814</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
+      <c r="G31" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31">
+        <v>6230</v>
+      </c>
+      <c r="I31">
+        <v>1.289134438305709</v>
+      </c>
+      <c r="J31">
+        <v>0.9834254143646409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C32">
         <v>3640</v>
@@ -1804,21 +1798,23 @@
       <c r="F32">
         <v>3615</v>
       </c>
-      <c r="G32" s="3">
-        <v>1.0465425531914889</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0.96143617021276595</v>
-      </c>
-      <c r="I32" s="4">
-        <f t="shared" si="0"/>
-        <v>8.5106382978722972E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="2"/>
+      <c r="G32" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32">
+        <v>3700</v>
+      </c>
+      <c r="I32">
+        <v>1.046542553191489</v>
+      </c>
+      <c r="J32">
+        <v>0.961436170212766</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C33">
         <v>312</v>
@@ -1832,21 +1828,23 @@
       <c r="F33">
         <v>306</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33">
+        <v>330</v>
+      </c>
+      <c r="I33">
         <v>1.121794871794872</v>
       </c>
-      <c r="H33" s="3">
-        <v>0.98076923076923073</v>
-      </c>
-      <c r="I33" s="4">
-        <f t="shared" si="0"/>
-        <v>0.1410256410256413</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="2"/>
+      <c r="J33">
+        <v>0.9807692307692307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C34">
         <v>4085</v>
@@ -1860,21 +1858,23 @@
       <c r="F34">
         <v>4035</v>
       </c>
-      <c r="G34" s="3">
-        <v>1.0526315789473679</v>
-      </c>
-      <c r="H34" s="3">
+      <c r="G34" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34">
+        <v>4215</v>
+      </c>
+      <c r="I34">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="J34">
         <v>0.9877600979192166</v>
       </c>
-      <c r="I34" s="4">
-        <f t="shared" si="0"/>
-        <v>6.4871481028151323E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" s="2"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C35">
         <v>44350</v>
@@ -1888,21 +1888,23 @@
       <c r="F35">
         <v>44600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35">
+        <v>45200</v>
+      </c>
+      <c r="I35">
         <v>1.066069428891377</v>
       </c>
-      <c r="H35" s="3">
-        <v>0.99888017917133254</v>
-      </c>
-      <c r="I35" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7189249720044475E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" s="2"/>
+      <c r="J35">
+        <v>0.9988801791713325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C36">
         <v>78400</v>
@@ -1916,21 +1918,23 @@
       <c r="F36">
         <v>78000</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36">
+        <v>84600</v>
+      </c>
+      <c r="I36">
         <v>1.106329113924051</v>
       </c>
-      <c r="H36" s="3">
-        <v>0.98734177215189878</v>
-      </c>
-      <c r="I36" s="4">
-        <f t="shared" si="0"/>
-        <v>0.1189873417721522</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" s="2"/>
+      <c r="J36">
+        <v>0.9873417721518988</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C37">
         <v>2510</v>
@@ -1944,21 +1948,23 @@
       <c r="F37">
         <v>2510</v>
       </c>
-      <c r="G37" s="3">
-        <v>1.0392156862745101</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0.98431372549019602</v>
-      </c>
-      <c r="I37" s="4">
-        <f t="shared" si="0"/>
-        <v>5.4901960784314086E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="2"/>
+      <c r="G37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37">
+        <v>2555</v>
+      </c>
+      <c r="I37">
+        <v>1.03921568627451</v>
+      </c>
+      <c r="J37">
+        <v>0.984313725490196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C38">
         <v>11400</v>
@@ -1972,21 +1978,23 @@
       <c r="F38">
         <v>11250</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38">
+        <v>11650</v>
+      </c>
+      <c r="I38">
         <v>1.025974025974026</v>
       </c>
-      <c r="H38" s="3">
-        <v>0.97402597402597402</v>
-      </c>
-      <c r="I38" s="4">
-        <f t="shared" si="0"/>
-        <v>5.1948051948051965E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="2"/>
+      <c r="J38">
+        <v>0.974025974025974</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C39">
         <v>3125</v>
@@ -2000,21 +2008,23 @@
       <c r="F39">
         <v>3095</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39">
+        <v>3180</v>
+      </c>
+      <c r="I39">
         <v>1.027113237639554</v>
       </c>
-      <c r="H39" s="3">
-        <v>0.98724082934609247</v>
-      </c>
-      <c r="I39" s="4">
-        <f t="shared" si="0"/>
-        <v>3.9872408293461503E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" s="2"/>
+      <c r="J39">
+        <v>0.9872408293460925</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C40">
         <v>10650</v>
@@ -2028,21 +2038,23 @@
       <c r="F40">
         <v>10250</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40">
+        <v>10350</v>
+      </c>
+      <c r="I40">
         <v>1.037037037037037</v>
       </c>
-      <c r="H40" s="3">
-        <v>0.94907407407407407</v>
-      </c>
-      <c r="I40" s="4">
-        <f t="shared" si="0"/>
-        <v>8.796296296296291E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" s="2"/>
+      <c r="J40">
+        <v>0.9490740740740741</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C41">
         <v>1130</v>
@@ -2056,23 +2068,25 @@
       <c r="F41">
         <v>1125</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41">
+        <v>1180</v>
+      </c>
+      <c r="I41">
         <v>1.075555555555556</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41">
         <v>1</v>
       </c>
-      <c r="I41" s="4">
-        <f t="shared" si="0"/>
-        <v>7.5555555555556042E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" s="2" t="s">
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C42">
         <v>7910</v>
@@ -2086,21 +2100,23 @@
       <c r="F42">
         <v>7750</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" t="s">
+        <v>80</v>
+      </c>
+      <c r="H42">
+        <v>7820</v>
+      </c>
+      <c r="I42">
         <v>1</v>
       </c>
-      <c r="H42" s="3">
-        <v>0.97853535353535348</v>
-      </c>
-      <c r="I42" s="4">
-        <f t="shared" si="0"/>
-        <v>2.146464646464652E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A43" s="2"/>
+      <c r="J42">
+        <v>0.9785353535353535</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C43">
         <v>12600</v>
@@ -2114,21 +2130,23 @@
       <c r="F43">
         <v>11800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" t="s">
+        <v>81</v>
+      </c>
+      <c r="H43">
+        <v>12100</v>
+      </c>
+      <c r="I43">
         <v>1.012</v>
       </c>
-      <c r="H43" s="3">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="I43" s="4">
-        <f t="shared" si="0"/>
-        <v>6.800000000000006E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A44" s="2"/>
+      <c r="J43">
+        <v>0.944</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C44">
         <v>28300</v>
@@ -2142,21 +2160,23 @@
       <c r="F44">
         <v>27450</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H44">
+        <v>35450</v>
+      </c>
+      <c r="I44">
         <v>1.333333333333333</v>
       </c>
-      <c r="H44" s="3">
-        <v>0.96825396825396826</v>
-      </c>
-      <c r="I44" s="4">
-        <f t="shared" si="0"/>
-        <v>0.36507936507936478</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" s="2"/>
+      <c r="J44">
+        <v>0.9682539682539683</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C45">
         <v>2585</v>
@@ -2170,21 +2190,23 @@
       <c r="F45">
         <v>2510</v>
       </c>
-      <c r="G45" s="3">
-        <v>1.0211946050096341</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0.96724470134874763</v>
-      </c>
-      <c r="I45" s="4">
-        <f t="shared" si="0"/>
-        <v>5.3949903660886478E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" s="2"/>
+      <c r="G45" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45">
+        <v>2620</v>
+      </c>
+      <c r="I45">
+        <v>1.021194605009634</v>
+      </c>
+      <c r="J45">
+        <v>0.9672447013487476</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C46">
         <v>2745</v>
@@ -2198,21 +2220,23 @@
       <c r="F46">
         <v>2625</v>
       </c>
-      <c r="G46" s="3">
-        <v>1.0383912248628879</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0.95978062157221211</v>
-      </c>
-      <c r="I46" s="4">
-        <f t="shared" si="0"/>
-        <v>7.8610603290675818E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47" s="2"/>
+      <c r="G46" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46">
+        <v>2700</v>
+      </c>
+      <c r="I46">
+        <v>1.038391224862888</v>
+      </c>
+      <c r="J46">
+        <v>0.9597806215722121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C47">
         <v>717</v>
@@ -2226,21 +2250,23 @@
       <c r="F47">
         <v>713</v>
       </c>
-      <c r="G47" s="3">
-        <v>1.1532033426183841</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0.99303621169916434</v>
-      </c>
-      <c r="I47" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16016713091921975</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" s="2"/>
+      <c r="G47" t="s">
+        <v>83</v>
+      </c>
+      <c r="H47">
+        <v>790</v>
+      </c>
+      <c r="I47">
+        <v>1.153203342618384</v>
+      </c>
+      <c r="J47">
+        <v>0.9930362116991643</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C48">
         <v>850</v>
@@ -2254,21 +2280,23 @@
       <c r="F48">
         <v>827</v>
       </c>
-      <c r="G48" s="3">
-        <v>1.2309495896834699</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0.96951934349355218</v>
-      </c>
-      <c r="I48" s="4">
-        <f t="shared" si="0"/>
-        <v>0.26143024618991773</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" s="2"/>
+      <c r="G48" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48">
+        <v>949</v>
+      </c>
+      <c r="I48">
+        <v>1.23094958968347</v>
+      </c>
+      <c r="J48">
+        <v>0.9695193434935522</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C49">
         <v>1345</v>
@@ -2282,21 +2310,23 @@
       <c r="F49">
         <v>1330</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" t="s">
+        <v>85</v>
+      </c>
+      <c r="H49">
+        <v>1380</v>
+      </c>
+      <c r="I49">
         <v>1.195652173913043</v>
       </c>
-      <c r="H49" s="3">
-        <v>0.96376811594202894</v>
-      </c>
-      <c r="I49" s="4">
-        <f t="shared" si="0"/>
-        <v>0.23188405797101408</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" s="2"/>
+      <c r="J49">
+        <v>0.9637681159420289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C50">
         <v>28000</v>
@@ -2310,21 +2340,23 @@
       <c r="F50">
         <v>28150</v>
       </c>
-      <c r="G50" s="3">
-        <v>1.1333333333333331</v>
-      </c>
-      <c r="H50" s="3">
+      <c r="G50" t="s">
+        <v>86</v>
+      </c>
+      <c r="H50">
+        <v>32000</v>
+      </c>
+      <c r="I50">
+        <v>1.133333333333333</v>
+      </c>
+      <c r="J50">
         <v>0.987719298245614</v>
       </c>
-      <c r="I50" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14561403508771908</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" s="2"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C51">
         <v>9320</v>
@@ -2338,23 +2370,25 @@
       <c r="F51">
         <v>9260</v>
       </c>
-      <c r="G51" s="3">
-        <v>1.1587982832618029</v>
-      </c>
-      <c r="H51" s="3">
-        <v>0.99356223175965663</v>
-      </c>
-      <c r="I51" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16523605150214626</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A52" s="2" t="s">
+      <c r="G51" t="s">
+        <v>87</v>
+      </c>
+      <c r="H51">
+        <v>10250</v>
+      </c>
+      <c r="I51">
+        <v>1.158798283261803</v>
+      </c>
+      <c r="J51">
+        <v>0.9935622317596566</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C52">
         <v>18500</v>
@@ -2368,21 +2402,23 @@
       <c r="F52">
         <v>18350</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" t="s">
+        <v>88</v>
+      </c>
+      <c r="H52">
+        <v>19650</v>
+      </c>
+      <c r="I52">
         <v>1.08421052631579</v>
       </c>
-      <c r="H52" s="3">
-        <v>0.96578947368421053</v>
-      </c>
-      <c r="I52" s="4">
-        <f t="shared" si="0"/>
-        <v>0.11842105263157943</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A53" s="2"/>
+      <c r="J52">
+        <v>0.9657894736842105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C53">
         <v>1005</v>
@@ -2396,21 +2432,23 @@
       <c r="F53">
         <v>975</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" t="s">
+        <v>89</v>
+      </c>
+      <c r="H53">
+        <v>1090</v>
+      </c>
+      <c r="I53">
         <v>1.152304609218437</v>
       </c>
-      <c r="H53" s="3">
+      <c r="J53">
         <v>0.9769539078156313</v>
       </c>
-      <c r="I53" s="4">
-        <f t="shared" si="0"/>
-        <v>0.17535070140280573</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A54" s="2"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C54">
         <v>6936</v>
@@ -2424,23 +2462,25 @@
       <c r="F54">
         <v>6439</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54">
+        <v>6440</v>
+      </c>
+      <c r="I54">
         <v>1</v>
       </c>
-      <c r="H54" s="3">
-        <v>0.93076033535703961</v>
-      </c>
-      <c r="I54" s="4">
-        <f t="shared" si="0"/>
-        <v>6.9239664642960386E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A55" s="2" t="s">
+      <c r="J54">
+        <v>0.9307603353570396</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C55">
         <v>405</v>
@@ -2454,21 +2494,23 @@
       <c r="F55">
         <v>370</v>
       </c>
-      <c r="G55" s="3">
-        <v>1.0473815461346629</v>
-      </c>
-      <c r="H55" s="3">
-        <v>0.92269326683291775</v>
-      </c>
-      <c r="I55" s="4">
-        <f t="shared" si="0"/>
-        <v>0.1246882793017452</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A56" s="2"/>
+      <c r="G55" t="s">
+        <v>41</v>
+      </c>
+      <c r="H55">
+        <v>384</v>
+      </c>
+      <c r="I55">
+        <v>1.047381546134663</v>
+      </c>
+      <c r="J55">
+        <v>0.9226932668329177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C56">
         <v>82500</v>
@@ -2482,21 +2524,23 @@
       <c r="F56">
         <v>80100</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" t="s">
+        <v>75</v>
+      </c>
+      <c r="H56">
+        <v>80300</v>
+      </c>
+      <c r="I56">
         <v>1.045454545454545</v>
       </c>
-      <c r="H56" s="3">
-        <v>0.95813397129186606</v>
-      </c>
-      <c r="I56" s="4">
-        <f t="shared" si="0"/>
-        <v>8.732057416267891E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A57" s="2"/>
+      <c r="J56">
+        <v>0.9581339712918661</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C57">
         <v>2600</v>
@@ -2510,21 +2554,23 @@
       <c r="F57">
         <v>2545</v>
       </c>
-      <c r="G57" s="3">
-        <v>1.0056925996204931</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0.96584440227703983</v>
-      </c>
-      <c r="I57" s="4">
-        <f t="shared" si="0"/>
-        <v>3.984819734345324E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A58" s="2"/>
+      <c r="G57" t="s">
+        <v>58</v>
+      </c>
+      <c r="H57">
+        <v>2560</v>
+      </c>
+      <c r="I57">
+        <v>1.005692599620493</v>
+      </c>
+      <c r="J57">
+        <v>0.9658444022770398</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C58">
         <v>2300</v>
@@ -2538,21 +2584,23 @@
       <c r="F58">
         <v>2250</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" t="s">
+        <v>91</v>
+      </c>
+      <c r="H58">
+        <v>2300</v>
+      </c>
+      <c r="I58">
         <v>1.03023758099352</v>
       </c>
-      <c r="H58" s="3">
-        <v>0.97192224622030232</v>
-      </c>
-      <c r="I58" s="4">
-        <f t="shared" si="0"/>
-        <v>5.8315334773217709E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A59" s="2"/>
+      <c r="J58">
+        <v>0.9719222462203023</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C59">
         <v>1180</v>
@@ -2566,23 +2614,25 @@
       <c r="F59">
         <v>1165</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" t="s">
+        <v>79</v>
+      </c>
+      <c r="H59">
+        <v>1220</v>
+      </c>
+      <c r="I59">
         <v>1.033333333333333</v>
       </c>
-      <c r="H59" s="3">
-        <v>0.97083333333333333</v>
-      </c>
-      <c r="I59" s="4">
-        <f t="shared" si="0"/>
-        <v>6.2499999999999667E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J59">
+        <v>0.9708333333333333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C60">
         <v>820</v>
@@ -2596,23 +2646,25 @@
       <c r="F60">
         <v>763</v>
       </c>
-      <c r="G60" s="3">
-        <v>1.1975609756097561</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0.93048780487804883</v>
-      </c>
-      <c r="I60" s="4">
-        <f t="shared" si="0"/>
-        <v>0.26707317073170722</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A61" s="2" t="s">
+      <c r="G60" t="s">
+        <v>92</v>
+      </c>
+      <c r="H60">
+        <v>764</v>
+      </c>
+      <c r="I60">
+        <v>1.197560975609756</v>
+      </c>
+      <c r="J60">
+        <v>0.9304878048780488</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C61">
         <v>856</v>
@@ -2626,21 +2678,23 @@
       <c r="F61">
         <v>755</v>
       </c>
-      <c r="G61" s="3">
-        <v>1.0071174377224199</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0.89561091340450771</v>
-      </c>
-      <c r="I61" s="4">
-        <f t="shared" si="0"/>
-        <v>0.11150652431791219</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A62" s="2"/>
+      <c r="G61" t="s">
+        <v>92</v>
+      </c>
+      <c r="H61">
+        <v>767</v>
+      </c>
+      <c r="I61">
+        <v>1.00711743772242</v>
+      </c>
+      <c r="J61">
+        <v>0.8956109134045077</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C62">
         <v>1150</v>
@@ -2654,21 +2708,23 @@
       <c r="F62">
         <v>1070</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" t="s">
+        <v>93</v>
+      </c>
+      <c r="H62">
+        <v>1090</v>
+      </c>
+      <c r="I62">
         <v>1</v>
       </c>
-      <c r="H62" s="3">
-        <v>0.90295358649789026</v>
-      </c>
-      <c r="I62" s="4">
-        <f t="shared" si="0"/>
-        <v>9.7046413502109741E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A63" s="2"/>
+      <c r="J62">
+        <v>0.9029535864978903</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C63">
         <v>4225</v>
@@ -2682,21 +2738,23 @@
       <c r="F63">
         <v>4165</v>
       </c>
-      <c r="G63" s="3">
-        <v>1.1343638525564801</v>
-      </c>
-      <c r="H63" s="3">
-        <v>0.99048751486325803</v>
-      </c>
-      <c r="I63" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14387633769322206</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A64" s="2"/>
+      <c r="G63" t="s">
+        <v>94</v>
+      </c>
+      <c r="H63">
+        <v>4660</v>
+      </c>
+      <c r="I63">
+        <v>1.13436385255648</v>
+      </c>
+      <c r="J63">
+        <v>0.990487514863258</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C64">
         <v>12750</v>
@@ -2710,21 +2768,23 @@
       <c r="F64">
         <v>11250</v>
       </c>
-      <c r="G64" s="3">
-        <v>1.0116731517509729</v>
-      </c>
-      <c r="H64" s="3">
+      <c r="G64" t="s">
+        <v>95</v>
+      </c>
+      <c r="H64">
+        <v>11500</v>
+      </c>
+      <c r="I64">
+        <v>1.011673151750973</v>
+      </c>
+      <c r="J64">
         <v>0.8754863813229572</v>
       </c>
-      <c r="I64" s="4">
-        <f t="shared" si="0"/>
-        <v>0.13618677042801575</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A65" s="2"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C65">
         <v>8300</v>
@@ -2738,21 +2798,23 @@
       <c r="F65">
         <v>8230</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65" t="s">
+        <v>96</v>
+      </c>
+      <c r="H65">
+        <v>8620</v>
+      </c>
+      <c r="I65">
         <v>1.162679425837321</v>
       </c>
-      <c r="H65" s="3">
-        <v>0.98444976076555024</v>
-      </c>
-      <c r="I65" s="4">
-        <f t="shared" si="0"/>
-        <v>0.17822966507177074</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A66" s="2"/>
+      <c r="J65">
+        <v>0.9844497607655502</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C66">
         <v>814</v>
@@ -2766,23 +2828,25 @@
       <c r="F66">
         <v>775</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" t="s">
+        <v>97</v>
+      </c>
+      <c r="H66">
+        <v>782</v>
+      </c>
+      <c r="I66">
         <v>1.019680196801968</v>
       </c>
-      <c r="H66" s="3">
-        <v>0.95325953259532592</v>
-      </c>
-      <c r="I66" s="4">
-        <f t="shared" si="0"/>
-        <v>6.6420664206642055E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A67" s="2" t="s">
+      <c r="J66">
+        <v>0.9532595325953259</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C67">
         <v>15600</v>
@@ -2796,21 +2860,23 @@
       <c r="F67">
         <v>15150</v>
       </c>
-      <c r="G67" s="3">
-        <v>1.0668789808917201</v>
-      </c>
-      <c r="H67" s="3">
-        <v>0.96496815286624205</v>
-      </c>
-      <c r="I67" s="4">
-        <f t="shared" ref="I67:I130" si="1">G67-H67</f>
-        <v>0.10191082802547802</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A68" s="2"/>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67">
+        <v>16400</v>
+      </c>
+      <c r="I67">
+        <v>1.06687898089172</v>
+      </c>
+      <c r="J67">
+        <v>0.964968152866242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C68">
         <v>6980</v>
@@ -2824,21 +2890,23 @@
       <c r="F68">
         <v>6470</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" t="s">
+        <v>98</v>
+      </c>
+      <c r="H68">
+        <v>6540</v>
+      </c>
+      <c r="I68">
         <v>1</v>
       </c>
-      <c r="H68" s="3">
-        <v>0.92428571428571427</v>
-      </c>
-      <c r="I68" s="4">
-        <f t="shared" si="1"/>
-        <v>7.5714285714285734E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A69" s="2"/>
+      <c r="J68">
+        <v>0.9242857142857143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C69">
         <v>2620</v>
@@ -2852,21 +2920,23 @@
       <c r="F69">
         <v>2525</v>
       </c>
-      <c r="G69" s="3">
-        <v>1.1871455576559551</v>
-      </c>
-      <c r="H69" s="3">
-        <v>0.95463137996219283</v>
-      </c>
-      <c r="I69" s="4">
-        <f t="shared" si="1"/>
-        <v>0.23251417769376226</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A70" s="2"/>
+      <c r="G69" t="s">
+        <v>58</v>
+      </c>
+      <c r="H69">
+        <v>2975</v>
+      </c>
+      <c r="I69">
+        <v>1.187145557655955</v>
+      </c>
+      <c r="J69">
+        <v>0.9546313799621928</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C70">
         <v>2720</v>
@@ -2880,23 +2950,25 @@
       <c r="F70">
         <v>2650</v>
       </c>
-      <c r="G70" s="3">
-        <v>1.0729927007299269</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0.96715328467153283</v>
-      </c>
-      <c r="I70" s="4">
-        <f t="shared" si="1"/>
-        <v>0.10583941605839409</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G70" t="s">
+        <v>99</v>
+      </c>
+      <c r="H70">
+        <v>2730</v>
+      </c>
+      <c r="I70">
+        <v>1.072992700729927</v>
+      </c>
+      <c r="J70">
+        <v>0.9671532846715328</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C71">
         <v>13650</v>
@@ -2910,23 +2982,25 @@
       <c r="F71">
         <v>13100</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" t="s">
+        <v>100</v>
+      </c>
+      <c r="H71">
+        <v>13990</v>
+      </c>
+      <c r="I71">
         <v>1.003496503496504</v>
       </c>
-      <c r="H71" s="3">
-        <v>0.91608391608391604</v>
-      </c>
-      <c r="I71" s="4">
-        <f t="shared" si="1"/>
-        <v>8.741258741258795E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A72" s="2" t="s">
+      <c r="J71">
+        <v>0.916083916083916</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C72">
         <v>5180</v>
@@ -2940,21 +3014,23 @@
       <c r="F72">
         <v>4990</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" t="s">
+        <v>101</v>
+      </c>
+      <c r="H72">
+        <v>5000</v>
+      </c>
+      <c r="I72">
         <v>1.03307392996109</v>
       </c>
-      <c r="H72" s="3">
-        <v>0.97081712062256809</v>
-      </c>
-      <c r="I72" s="4">
-        <f t="shared" si="1"/>
-        <v>6.2256809338521957E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A73" s="2"/>
+      <c r="J72">
+        <v>0.9708171206225681</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C73">
         <v>3580</v>
@@ -2968,21 +3044,23 @@
       <c r="F73">
         <v>3310</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G73" t="s">
+        <v>102</v>
+      </c>
+      <c r="H73">
+        <v>3410</v>
+      </c>
+      <c r="I73">
         <v>1.043909348441926</v>
       </c>
-      <c r="H73" s="3">
-        <v>0.93767705382436262</v>
-      </c>
-      <c r="I73" s="4">
-        <f t="shared" si="1"/>
-        <v>0.10623229461756334</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A74" s="2"/>
+      <c r="J73">
+        <v>0.9376770538243626</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C74">
         <v>1090</v>
@@ -2996,21 +3074,23 @@
       <c r="F74">
         <v>1003</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74" t="s">
+        <v>103</v>
+      </c>
+      <c r="H74">
+        <v>1041</v>
+      </c>
+      <c r="I74">
         <v>1.055555555555556</v>
       </c>
-      <c r="H74" s="3">
+      <c r="J74">
         <v>0.9287037037037037</v>
       </c>
-      <c r="I74" s="4">
-        <f t="shared" si="1"/>
-        <v>0.12685185185185233</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A75" s="2"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C75">
         <v>6651</v>
@@ -3024,23 +3104,25 @@
       <c r="F75">
         <v>6559</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75" t="s">
+        <v>90</v>
+      </c>
+      <c r="H75">
+        <v>7553</v>
+      </c>
+      <c r="I75">
         <v>1.160181680545042</v>
       </c>
-      <c r="H75" s="3">
-        <v>0.99303557910673734</v>
-      </c>
-      <c r="I75" s="4">
-        <f t="shared" si="1"/>
-        <v>0.16714610143830466</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J75">
+        <v>0.9930355791067373</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C76">
         <v>6890</v>
@@ -3054,23 +3136,25 @@
       <c r="F76">
         <v>6816</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" t="s">
+        <v>90</v>
+      </c>
+      <c r="H76">
+        <v>7019</v>
+      </c>
+      <c r="I76">
         <v>1.101955708944492</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76">
         <v>0.9801553062985332</v>
       </c>
-      <c r="I76" s="4">
-        <f t="shared" si="1"/>
-        <v>0.12180040264595882</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A77" s="2" t="s">
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C77">
         <v>12850</v>
@@ -3084,21 +3168,23 @@
       <c r="F77">
         <v>12410</v>
       </c>
-      <c r="G77" s="3">
-        <v>1.1053446940356311</v>
-      </c>
-      <c r="H77" s="3">
-        <v>0.96127033307513554</v>
-      </c>
-      <c r="I77" s="4">
-        <f t="shared" si="1"/>
-        <v>0.14407436096049553</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A78" s="2"/>
+      <c r="G77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H77">
+        <v>13720</v>
+      </c>
+      <c r="I77">
+        <v>1.105344694035631</v>
+      </c>
+      <c r="J77">
+        <v>0.9612703330751355</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C78">
         <v>8370</v>
@@ -3112,21 +3198,23 @@
       <c r="F78">
         <v>0</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G78" t="s">
+        <v>105</v>
+      </c>
+      <c r="H78">
+        <v>7800</v>
+      </c>
+      <c r="I78">
         <v>1.133811230585424</v>
       </c>
-      <c r="H78" s="3">
+      <c r="J78">
         <v>0</v>
       </c>
-      <c r="I78" s="4">
-        <f t="shared" si="1"/>
-        <v>1.133811230585424</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A79" s="2"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C79">
         <v>19700</v>
@@ -3140,21 +3228,23 @@
       <c r="F79">
         <v>19580</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G79" t="s">
+        <v>106</v>
+      </c>
+      <c r="H79">
+        <v>20050</v>
+      </c>
+      <c r="I79">
         <v>1.044776119402985</v>
       </c>
-      <c r="H79" s="3">
-        <v>0.97412935323383087</v>
-      </c>
-      <c r="I79" s="4">
-        <f t="shared" si="1"/>
-        <v>7.0646766169154107E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A80" s="2"/>
+      <c r="J79">
+        <v>0.9741293532338309</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C80">
         <v>10250</v>
@@ -3168,21 +3258,23 @@
       <c r="F80">
         <v>9050</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G80" t="s">
+        <v>107</v>
+      </c>
+      <c r="H80">
+        <v>9370</v>
+      </c>
+      <c r="I80">
         <v>1.052173913043478</v>
       </c>
-      <c r="H80" s="3">
-        <v>0.87439613526570048</v>
-      </c>
-      <c r="I80" s="4">
-        <f t="shared" si="1"/>
-        <v>0.17777777777777748</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A81" s="2"/>
+      <c r="J80">
+        <v>0.8743961352657005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C81">
         <v>1527</v>
@@ -3196,21 +3288,23 @@
       <c r="F81">
         <v>1488</v>
       </c>
-      <c r="G81" s="3">
-        <v>1.0374435119431891</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0.96061975468043903</v>
-      </c>
-      <c r="I81" s="4">
-        <f t="shared" si="1"/>
-        <v>7.6823757262750036E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A82" s="2"/>
+      <c r="G81" t="s">
+        <v>108</v>
+      </c>
+      <c r="H81">
+        <v>1497</v>
+      </c>
+      <c r="I81">
+        <v>1.037443511943189</v>
+      </c>
+      <c r="J81">
+        <v>0.960619754680439</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C82">
         <v>5850</v>
@@ -3224,23 +3318,25 @@
       <c r="F82">
         <v>5530</v>
       </c>
-      <c r="G82" s="3">
-        <v>1.0153846153846151</v>
-      </c>
-      <c r="H82" s="3">
-        <v>0.94529914529914527</v>
-      </c>
-      <c r="I82" s="4">
-        <f t="shared" si="1"/>
-        <v>7.0085470085469836E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A83" s="2" t="s">
+      <c r="G82" t="s">
+        <v>109</v>
+      </c>
+      <c r="H82">
+        <v>5680</v>
+      </c>
+      <c r="I82">
+        <v>1.015384615384615</v>
+      </c>
+      <c r="J82">
+        <v>0.9452991452991453</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C83">
         <v>7760</v>
@@ -3254,21 +3350,23 @@
       <c r="F83">
         <v>7550</v>
       </c>
-      <c r="G83" s="3">
-        <v>1.0088945362134689</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="G83" t="s">
+        <v>110</v>
+      </c>
+      <c r="H83">
+        <v>7640</v>
+      </c>
+      <c r="I83">
+        <v>1.008894536213469</v>
+      </c>
+      <c r="J83">
         <v>0.9593392630241423</v>
       </c>
-      <c r="I83" s="4">
-        <f t="shared" si="1"/>
-        <v>4.9555273189326621E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A84" s="2"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C84">
         <v>3375</v>
@@ -3282,21 +3380,23 @@
       <c r="F84">
         <v>3180</v>
       </c>
-      <c r="G84" s="3">
-        <v>1.0014749262536871</v>
-      </c>
-      <c r="H84" s="3">
-        <v>0.93805309734513276</v>
-      </c>
-      <c r="I84" s="4">
-        <f t="shared" si="1"/>
-        <v>6.3421828908554301E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A85" s="2"/>
+      <c r="G84" t="s">
+        <v>111</v>
+      </c>
+      <c r="H84">
+        <v>3320</v>
+      </c>
+      <c r="I84">
+        <v>1.001474926253687</v>
+      </c>
+      <c r="J84">
+        <v>0.9380530973451328</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C85">
         <v>1563</v>
@@ -3310,23 +3410,25 @@
       <c r="F85">
         <v>1488</v>
       </c>
-      <c r="G85" s="3">
-        <v>1.0408031088082901</v>
-      </c>
-      <c r="H85" s="3">
-        <v>0.96373056994818651</v>
-      </c>
-      <c r="I85" s="4">
-        <f t="shared" si="1"/>
-        <v>7.7072538860103568E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G85" t="s">
+        <v>108</v>
+      </c>
+      <c r="H85">
+        <v>1496</v>
+      </c>
+      <c r="I85">
+        <v>1.04080310880829</v>
+      </c>
+      <c r="J85">
+        <v>0.9637305699481865</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C86">
         <v>13270</v>
@@ -3340,23 +3442,25 @@
       <c r="F86">
         <v>13030</v>
       </c>
-      <c r="G86" s="3">
-        <v>1.1121987951807231</v>
-      </c>
-      <c r="H86" s="3">
-        <v>0.98117469879518071</v>
-      </c>
-      <c r="I86" s="4">
-        <f t="shared" si="1"/>
-        <v>0.13102409638554235</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A87" s="2" t="s">
+      <c r="G86" t="s">
+        <v>104</v>
+      </c>
+      <c r="H86">
+        <v>14520</v>
+      </c>
+      <c r="I86">
+        <v>1.112198795180723</v>
+      </c>
+      <c r="J86">
+        <v>0.9811746987951807</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C87">
         <v>1922</v>
@@ -3370,21 +3474,23 @@
       <c r="F87">
         <v>1890</v>
       </c>
-      <c r="G87" s="3">
-        <v>1.0312180143295799</v>
-      </c>
-      <c r="H87" s="3">
-        <v>0.96724667349027638</v>
-      </c>
-      <c r="I87" s="4">
-        <f t="shared" si="1"/>
-        <v>6.3971340839303559E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A88" s="2"/>
+      <c r="G87" t="s">
+        <v>112</v>
+      </c>
+      <c r="H87">
+        <v>1894</v>
+      </c>
+      <c r="I87">
+        <v>1.03121801432958</v>
+      </c>
+      <c r="J87">
+        <v>0.9672466734902764</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C88">
         <v>3410</v>
@@ -3398,21 +3504,23 @@
       <c r="F88">
         <v>3250</v>
       </c>
-      <c r="G88" s="3">
-        <v>1.0657894736842111</v>
-      </c>
-      <c r="H88" s="3">
-        <v>0.95029239766081874</v>
-      </c>
-      <c r="I88" s="4">
-        <f t="shared" si="1"/>
-        <v>0.11549707602339232</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A89" s="2"/>
+      <c r="G88" t="s">
+        <v>102</v>
+      </c>
+      <c r="H88">
+        <v>3440</v>
+      </c>
+      <c r="I88">
+        <v>1.065789473684211</v>
+      </c>
+      <c r="J88">
+        <v>0.9502923976608187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C89">
         <v>889</v>
@@ -3426,21 +3534,23 @@
       <c r="F89">
         <v>850</v>
       </c>
-      <c r="G89" s="3">
-        <v>1.0213723284589431</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0.95613048368953879</v>
-      </c>
-      <c r="I89" s="4">
-        <f t="shared" si="1"/>
-        <v>6.5241844769404311E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A90" s="2"/>
+      <c r="G89" t="s">
+        <v>113</v>
+      </c>
+      <c r="H89">
+        <v>880</v>
+      </c>
+      <c r="I89">
+        <v>1.021372328458943</v>
+      </c>
+      <c r="J89">
+        <v>0.9561304836895388</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C90">
         <v>1818</v>
@@ -3454,21 +3564,23 @@
       <c r="F90">
         <v>1704</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90" t="s">
+        <v>114</v>
+      </c>
+      <c r="H90">
+        <v>2385</v>
+      </c>
+      <c r="I90">
         <v>1.429734129137276</v>
       </c>
-      <c r="H90" s="3">
-        <v>0.92457948996201844</v>
-      </c>
-      <c r="I90" s="4">
-        <f t="shared" si="1"/>
-        <v>0.5051546391752576</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A91" s="2"/>
+      <c r="J90">
+        <v>0.9245794899620184</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="1"/>
       <c r="B91" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C91">
         <v>24900</v>
@@ -3482,23 +3594,25 @@
       <c r="F91">
         <v>25650</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" t="s">
+        <v>115</v>
+      </c>
+      <c r="H91">
+        <v>36600</v>
+      </c>
+      <c r="I91">
         <v>1.510679611650485</v>
       </c>
-      <c r="H91" s="3">
-        <v>0.99611650485436898</v>
-      </c>
-      <c r="I91" s="4">
-        <f t="shared" si="1"/>
-        <v>0.51456310679611605</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J91">
+        <v>0.996116504854369</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C92">
         <v>30350</v>
@@ -3512,23 +3626,25 @@
       <c r="F92">
         <v>29300</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92" t="s">
+        <v>116</v>
+      </c>
+      <c r="H92">
+        <v>29850</v>
+      </c>
+      <c r="I92">
         <v>1.01468189233279</v>
       </c>
-      <c r="H92" s="3">
+      <c r="J92">
         <v>0.9559543230016313</v>
       </c>
-      <c r="I92" s="4">
-        <f t="shared" si="1"/>
-        <v>5.8727569331158747E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C93">
         <v>13050</v>
@@ -3542,23 +3658,25 @@
       <c r="F93">
         <v>12100</v>
       </c>
-      <c r="G93" s="3">
-        <v>1.4170542635658909</v>
-      </c>
-      <c r="H93" s="3">
-        <v>0.93798449612403101</v>
-      </c>
-      <c r="I93" s="4">
-        <f t="shared" si="1"/>
-        <v>0.47906976744185992</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A94" s="2" t="s">
+      <c r="G93" t="s">
+        <v>117</v>
+      </c>
+      <c r="H93">
+        <v>18250</v>
+      </c>
+      <c r="I93">
+        <v>1.417054263565891</v>
+      </c>
+      <c r="J93">
+        <v>0.937984496124031</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C94">
         <v>1781</v>
@@ -3572,21 +3690,23 @@
       <c r="F94">
         <v>1782</v>
       </c>
-      <c r="G94" s="3">
-        <v>1.4590347923681259</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="G94" t="s">
+        <v>118</v>
+      </c>
+      <c r="H94">
+        <v>2445</v>
+      </c>
+      <c r="I94">
+        <v>1.459034792368126</v>
+      </c>
+      <c r="J94">
         <v>1</v>
       </c>
-      <c r="I94" s="4">
-        <f t="shared" si="1"/>
-        <v>0.45903479236812594</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A95" s="2"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C95">
         <v>5360</v>
@@ -3600,21 +3720,23 @@
       <c r="F95">
         <v>5240</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G95" t="s">
+        <v>119</v>
+      </c>
+      <c r="H95">
+        <v>5310</v>
+      </c>
+      <c r="I95">
         <v>1.04089219330855</v>
       </c>
-      <c r="H95" s="3">
-        <v>0.97397769516728627</v>
-      </c>
-      <c r="I95" s="4">
-        <f t="shared" si="1"/>
-        <v>6.6914498141263712E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A96" s="2"/>
+      <c r="J95">
+        <v>0.9739776951672863</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C96">
         <v>3455</v>
@@ -3628,21 +3750,23 @@
       <c r="F96">
         <v>3325</v>
       </c>
-      <c r="G96" s="3">
-        <v>1.0414285714285709</v>
-      </c>
-      <c r="H96" s="3">
+      <c r="G96" t="s">
+        <v>102</v>
+      </c>
+      <c r="H96">
+        <v>3325</v>
+      </c>
+      <c r="I96">
+        <v>1.041428571428571</v>
+      </c>
+      <c r="J96">
         <v>0.95</v>
       </c>
-      <c r="I96" s="4">
-        <f t="shared" si="1"/>
-        <v>9.1428571428570971E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A97" s="2"/>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C97">
         <v>4285</v>
@@ -3656,21 +3780,23 @@
       <c r="F97">
         <v>4295</v>
       </c>
-      <c r="G97" s="3">
+      <c r="G97" t="s">
+        <v>120</v>
+      </c>
+      <c r="H97">
+        <v>4430</v>
+      </c>
+      <c r="I97">
         <v>1.019362186788155</v>
       </c>
-      <c r="H97" s="3">
-        <v>0.97835990888382685</v>
-      </c>
-      <c r="I97" s="4">
-        <f t="shared" si="1"/>
-        <v>4.1002277904328199E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A98" s="2"/>
+      <c r="J97">
+        <v>0.9783599088838268</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="1"/>
       <c r="B98" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C98">
         <v>6470</v>
@@ -3684,21 +3810,23 @@
       <c r="F98">
         <v>6490</v>
       </c>
-      <c r="G98" s="3">
-        <v>1.0506134969325149</v>
-      </c>
-      <c r="H98" s="3">
+      <c r="G98" t="s">
+        <v>98</v>
+      </c>
+      <c r="H98">
+        <v>6600</v>
+      </c>
+      <c r="I98">
+        <v>1.050613496932515</v>
+      </c>
+      <c r="J98">
         <v>0.995398773006135</v>
       </c>
-      <c r="I98" s="4">
-        <f t="shared" si="1"/>
-        <v>5.5214723926379938E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A99" s="2"/>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="1"/>
       <c r="B99" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C99">
         <v>1280</v>
@@ -3712,21 +3840,23 @@
       <c r="F99">
         <v>1250</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G99" t="s">
+        <v>69</v>
+      </c>
+      <c r="H99">
+        <v>1271</v>
+      </c>
+      <c r="I99">
         <v>1.027820710973725</v>
       </c>
-      <c r="H99" s="3">
-        <v>0.96599690880989186</v>
-      </c>
-      <c r="I99" s="4">
-        <f t="shared" si="1"/>
-        <v>6.1823802163833097E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A100" s="2"/>
+      <c r="J99">
+        <v>0.9659969088098919</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="1"/>
       <c r="B100" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C100">
         <v>18570</v>
@@ -3740,23 +3870,25 @@
       <c r="F100">
         <v>18000</v>
       </c>
-      <c r="G100" s="3">
-        <v>1.0186170212765959</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0.95744680851063835</v>
-      </c>
-      <c r="I100" s="4">
-        <f t="shared" si="1"/>
-        <v>6.1170212765957577E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A101" s="2" t="s">
+      <c r="G100" t="s">
+        <v>121</v>
+      </c>
+      <c r="H100">
+        <v>18760</v>
+      </c>
+      <c r="I100">
+        <v>1.018617021276596</v>
+      </c>
+      <c r="J100">
+        <v>0.9574468085106383</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C101">
         <v>1022</v>
@@ -3770,21 +3902,23 @@
       <c r="F101">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
-        <v>1.0058708414872799</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0.97847358121330719</v>
-      </c>
-      <c r="I101" s="4">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972712E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A102" s="2"/>
+      <c r="G101" t="s">
+        <v>122</v>
+      </c>
+      <c r="H101">
+        <v>1006</v>
+      </c>
+      <c r="I101">
+        <v>1.00587084148728</v>
+      </c>
+      <c r="J101">
+        <v>0.9784735812133072</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="1"/>
       <c r="B102" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C102">
         <v>4415</v>
@@ -3798,21 +3932,23 @@
       <c r="F102">
         <v>4320</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" t="s">
+        <v>120</v>
+      </c>
+      <c r="H102">
+        <v>4355</v>
+      </c>
+      <c r="I102">
         <v>1.006749156355456</v>
       </c>
-      <c r="H102" s="3">
-        <v>0.97187851518560175</v>
-      </c>
-      <c r="I102" s="4">
-        <f t="shared" si="1"/>
-        <v>3.4870641169854277E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A103" s="2"/>
+      <c r="J102">
+        <v>0.9718785151856018</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="1"/>
       <c r="B103" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C103">
         <v>3395</v>
@@ -3826,21 +3962,23 @@
       <c r="F103">
         <v>3140</v>
       </c>
-      <c r="G103" s="3">
+      <c r="G103" t="s">
+        <v>123</v>
+      </c>
+      <c r="H103">
+        <v>3350</v>
+      </c>
+      <c r="I103">
         <v>1</v>
       </c>
-      <c r="H103" s="3">
-        <v>0.92352941176470593</v>
-      </c>
-      <c r="I103" s="4">
-        <f t="shared" si="1"/>
-        <v>7.6470588235294068E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A104" s="2"/>
+      <c r="J103">
+        <v>0.9235294117647059</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="1"/>
       <c r="B104" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C104">
         <v>15050</v>
@@ -3854,21 +3992,23 @@
       <c r="F104">
         <v>14710</v>
       </c>
-      <c r="G104" s="3">
+      <c r="G104" t="s">
+        <v>124</v>
+      </c>
+      <c r="H104">
+        <v>15030</v>
+      </c>
+      <c r="I104">
         <v>1.024454725710509</v>
       </c>
-      <c r="H104" s="3">
-        <v>0.97224058162590876</v>
-      </c>
-      <c r="I104" s="4">
-        <f t="shared" si="1"/>
-        <v>5.2214144084600234E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A105" s="2"/>
+      <c r="J104">
+        <v>0.9722405816259088</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="1"/>
       <c r="B105" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C105">
         <v>1485</v>
@@ -3882,21 +4022,23 @@
       <c r="F105">
         <v>1442</v>
       </c>
-      <c r="G105" s="3">
+      <c r="G105" t="s">
+        <v>125</v>
+      </c>
+      <c r="H105">
+        <v>1524</v>
+      </c>
+      <c r="I105">
         <v>1.051643192488263</v>
       </c>
-      <c r="H105" s="3">
-        <v>0.96713615023474175</v>
-      </c>
-      <c r="I105" s="4">
-        <f t="shared" si="1"/>
-        <v>8.4507042253521236E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A106" s="2"/>
+      <c r="J105">
+        <v>0.9671361502347418</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="1"/>
       <c r="B106" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C106">
         <v>900</v>
@@ -3910,21 +4052,23 @@
       <c r="F106">
         <v>869</v>
       </c>
-      <c r="G106" s="3">
+      <c r="G106" t="s">
+        <v>84</v>
+      </c>
+      <c r="H106">
+        <v>879</v>
+      </c>
+      <c r="I106">
         <v>1.014444444444444</v>
       </c>
-      <c r="H106" s="3">
+      <c r="J106">
         <v>0.9655555555555555</v>
       </c>
-      <c r="I106" s="4">
-        <f t="shared" si="1"/>
-        <v>4.8888888888888538E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A107" s="2"/>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C107">
         <v>3390</v>
@@ -3938,21 +4082,23 @@
       <c r="F107">
         <v>3250</v>
       </c>
-      <c r="G107" s="3">
-        <v>1.0219941348973609</v>
-      </c>
-      <c r="H107" s="3">
-        <v>0.95307917888563054</v>
-      </c>
-      <c r="I107" s="4">
-        <f t="shared" si="1"/>
-        <v>6.8914956011730366E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A108" s="2"/>
+      <c r="G107" t="s">
+        <v>111</v>
+      </c>
+      <c r="H107">
+        <v>3285</v>
+      </c>
+      <c r="I107">
+        <v>1.021994134897361</v>
+      </c>
+      <c r="J107">
+        <v>0.9530791788856305</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="1"/>
       <c r="B108" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C108">
         <v>8260</v>
@@ -3966,21 +4112,23 @@
       <c r="F108">
         <v>7840</v>
       </c>
-      <c r="G108" s="3">
-        <v>1.2106537530266339</v>
-      </c>
-      <c r="H108" s="3">
-        <v>0.94915254237288138</v>
-      </c>
-      <c r="I108" s="4">
-        <f t="shared" si="1"/>
-        <v>0.26150121065375254</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A109" s="2"/>
+      <c r="G108" t="s">
+        <v>126</v>
+      </c>
+      <c r="H108">
+        <v>8250</v>
+      </c>
+      <c r="I108">
+        <v>1.210653753026634</v>
+      </c>
+      <c r="J108">
+        <v>0.9491525423728814</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="1"/>
       <c r="B109" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C109">
         <v>1010</v>
@@ -3994,23 +4142,25 @@
       <c r="F109">
         <v>880</v>
       </c>
-      <c r="G109" s="3">
+      <c r="G109" t="s">
+        <v>127</v>
+      </c>
+      <c r="H109">
+        <v>914</v>
+      </c>
+      <c r="I109">
         <v>1.007912957467854</v>
       </c>
-      <c r="H109" s="3">
-        <v>0.87042532146389717</v>
-      </c>
-      <c r="I109" s="4">
-        <f t="shared" si="1"/>
-        <v>0.13748763600395686</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A110" s="2" t="s">
+      <c r="J109">
+        <v>0.8704253214638972</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C110">
         <v>1734</v>
@@ -4024,21 +4174,23 @@
       <c r="F110">
         <v>1700</v>
       </c>
-      <c r="G110" s="3">
+      <c r="G110" t="s">
+        <v>44</v>
+      </c>
+      <c r="H110">
+        <v>2660</v>
+      </c>
+      <c r="I110">
         <v>1.664753157290471</v>
       </c>
-      <c r="H110" s="3">
-        <v>0.97588978185993114</v>
-      </c>
-      <c r="I110" s="4">
-        <f t="shared" si="1"/>
-        <v>0.68886337543053988</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A111" s="2"/>
+      <c r="J110">
+        <v>0.9758897818599311</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C111">
         <v>1792</v>
@@ -4052,23 +4204,25 @@
       <c r="F111">
         <v>1540</v>
       </c>
-      <c r="G111" s="3">
+      <c r="G111" t="s">
+        <v>128</v>
+      </c>
+      <c r="H111">
+        <v>1615</v>
+      </c>
+      <c r="I111">
         <v>1.029493600445186</v>
       </c>
-      <c r="H111" s="3">
-        <v>0.85698386199220922</v>
-      </c>
-      <c r="I111" s="4">
-        <f t="shared" si="1"/>
-        <v>0.17250973845297679</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A112" s="2" t="s">
+      <c r="J111">
+        <v>0.8569838619922092</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C112">
         <v>1260</v>
@@ -4082,21 +4236,23 @@
       <c r="F112">
         <v>1185</v>
       </c>
-      <c r="G112" s="3">
-        <v>1.0387351778656131</v>
-      </c>
-      <c r="H112" s="3">
-        <v>0.93675889328063244</v>
-      </c>
-      <c r="I112" s="4">
-        <f t="shared" si="1"/>
-        <v>0.10197628458498065</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A113" s="2"/>
+      <c r="G112" t="s">
+        <v>129</v>
+      </c>
+      <c r="H112">
+        <v>1191</v>
+      </c>
+      <c r="I112">
+        <v>1.038735177865613</v>
+      </c>
+      <c r="J112">
+        <v>0.9367588932806324</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="1"/>
       <c r="B113" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C113">
         <v>9480</v>
@@ -4110,21 +4266,23 @@
       <c r="F113">
         <v>9350</v>
       </c>
-      <c r="G113" s="3">
-        <v>1.0816542948038179</v>
-      </c>
-      <c r="H113" s="3">
-        <v>0.99151643690349944</v>
-      </c>
-      <c r="I113" s="4">
-        <f t="shared" si="1"/>
-        <v>9.0137857900318474E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A114" s="2"/>
+      <c r="G113" t="s">
+        <v>107</v>
+      </c>
+      <c r="H113">
+        <v>9920</v>
+      </c>
+      <c r="I113">
+        <v>1.081654294803818</v>
+      </c>
+      <c r="J113">
+        <v>0.9915164369034994</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="1"/>
       <c r="B114" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C114">
         <v>10630</v>
@@ -4138,21 +4296,23 @@
       <c r="F114">
         <v>9120</v>
       </c>
-      <c r="G114" s="3">
-        <v>1.0270531400966181</v>
-      </c>
-      <c r="H114" s="3">
-        <v>0.88115942028985506</v>
-      </c>
-      <c r="I114" s="4">
-        <f t="shared" si="1"/>
-        <v>0.14589371980676302</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A115" s="2"/>
+      <c r="G114" t="s">
+        <v>130</v>
+      </c>
+      <c r="H114">
+        <v>9550</v>
+      </c>
+      <c r="I114">
+        <v>1.027053140096618</v>
+      </c>
+      <c r="J114">
+        <v>0.8811594202898551</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="1"/>
       <c r="B115" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C115">
         <v>10360</v>
@@ -4166,23 +4326,25 @@
       <c r="F115">
         <v>10400</v>
       </c>
-      <c r="G115" s="3">
+      <c r="G115" t="s">
+        <v>131</v>
+      </c>
+      <c r="H115">
+        <v>11350</v>
+      </c>
+      <c r="I115">
         <v>1.165067178502879</v>
       </c>
-      <c r="H115" s="3">
-        <v>0.99808061420345484</v>
-      </c>
-      <c r="I115" s="4">
-        <f t="shared" si="1"/>
-        <v>0.16698656429942416</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A116" s="2" t="s">
+      <c r="J115">
+        <v>0.9980806142034548</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C116">
         <v>24350</v>
@@ -4196,21 +4358,23 @@
       <c r="F116">
         <v>22000</v>
       </c>
-      <c r="G116" s="3">
-        <v>1.0246406570841891</v>
-      </c>
-      <c r="H116" s="3">
-        <v>0.90349075975359339</v>
-      </c>
-      <c r="I116" s="4">
-        <f t="shared" si="1"/>
-        <v>0.12114989733059567</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A117" s="2"/>
+      <c r="G116" t="s">
+        <v>132</v>
+      </c>
+      <c r="H116">
+        <v>22550</v>
+      </c>
+      <c r="I116">
+        <v>1.024640657084189</v>
+      </c>
+      <c r="J116">
+        <v>0.9034907597535934</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="1"/>
       <c r="B117" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C117">
         <v>14170</v>
@@ -4224,23 +4388,25 @@
       <c r="F117">
         <v>12820</v>
       </c>
-      <c r="G117" s="3">
+      <c r="G117" t="s">
+        <v>133</v>
+      </c>
+      <c r="H117">
+        <v>13860</v>
+      </c>
+      <c r="I117">
         <v>1.04140350877193</v>
       </c>
-      <c r="H117" s="3">
-        <v>0.89964912280701759</v>
-      </c>
-      <c r="I117" s="4">
-        <f t="shared" si="1"/>
-        <v>0.14175438596491241</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A118" s="2" t="s">
+      <c r="J117">
+        <v>0.8996491228070176</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C118">
         <v>3815</v>
@@ -4254,21 +4420,23 @@
       <c r="F118">
         <v>3800</v>
       </c>
-      <c r="G118" s="3">
-        <v>1.4103896103896101</v>
-      </c>
-      <c r="H118" s="3">
-        <v>0.98701298701298701</v>
-      </c>
-      <c r="I118" s="4">
-        <f t="shared" si="1"/>
-        <v>0.42337662337662307</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A119" s="2"/>
+      <c r="G118" t="s">
+        <v>134</v>
+      </c>
+      <c r="H118">
+        <v>4620</v>
+      </c>
+      <c r="I118">
+        <v>1.41038961038961</v>
+      </c>
+      <c r="J118">
+        <v>0.987012987012987</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="1"/>
       <c r="B119" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C119">
         <v>10190</v>
@@ -4282,23 +4450,25 @@
       <c r="F119">
         <v>9560</v>
       </c>
-      <c r="G119" s="3">
-        <v>1.0128585558852621</v>
-      </c>
-      <c r="H119" s="3">
-        <v>0.94559841740850648</v>
-      </c>
-      <c r="I119" s="4">
-        <f t="shared" si="1"/>
-        <v>6.7260138476755604E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A120" s="2" t="s">
+      <c r="G119" t="s">
+        <v>135</v>
+      </c>
+      <c r="H119">
+        <v>9970</v>
+      </c>
+      <c r="I119">
+        <v>1.012858555885262</v>
+      </c>
+      <c r="J119">
+        <v>0.9455984174085065</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C120">
         <v>4740</v>
@@ -4312,21 +4482,23 @@
       <c r="F120">
         <v>0</v>
       </c>
-      <c r="G120" s="3">
-        <v>1.0232067510548519</v>
-      </c>
-      <c r="H120" s="3">
+      <c r="G120" t="s">
+        <v>136</v>
+      </c>
+      <c r="H120">
+        <v>4165</v>
+      </c>
+      <c r="I120">
+        <v>1.023206751054852</v>
+      </c>
+      <c r="J120">
         <v>0</v>
       </c>
-      <c r="I120" s="4">
-        <f t="shared" si="1"/>
-        <v>1.0232067510548519</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A121" s="2"/>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="1"/>
       <c r="B121" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C121">
         <v>3830</v>
@@ -4340,21 +4512,23 @@
       <c r="F121">
         <v>3465</v>
       </c>
-      <c r="G121" s="3">
+      <c r="G121" t="s">
+        <v>137</v>
+      </c>
+      <c r="H121">
+        <v>3575</v>
+      </c>
+      <c r="I121">
         <v>1</v>
       </c>
-      <c r="H121" s="3">
-        <v>0.90469973890339428</v>
-      </c>
-      <c r="I121" s="4">
-        <f t="shared" si="1"/>
-        <v>9.5300261096605721E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A122" s="2"/>
+      <c r="J121">
+        <v>0.9046997389033943</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C122">
         <v>3125</v>
@@ -4368,21 +4542,23 @@
       <c r="F122">
         <v>3010</v>
       </c>
-      <c r="G122" s="3">
-        <v>1.0516129032258059</v>
-      </c>
-      <c r="H122" s="3">
-        <v>0.97096774193548385</v>
-      </c>
-      <c r="I122" s="4">
-        <f t="shared" si="1"/>
-        <v>8.0645161290322065E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A123" s="2"/>
+      <c r="G122" t="s">
+        <v>138</v>
+      </c>
+      <c r="H122">
+        <v>3050</v>
+      </c>
+      <c r="I122">
+        <v>1.051612903225806</v>
+      </c>
+      <c r="J122">
+        <v>0.9709677419354839</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C123">
         <v>5390</v>
@@ -4396,21 +4572,23 @@
       <c r="F123">
         <v>4900</v>
       </c>
-      <c r="G123" s="3">
+      <c r="G123" t="s">
+        <v>139</v>
+      </c>
+      <c r="H123">
+        <v>5070</v>
+      </c>
+      <c r="I123">
         <v>1</v>
       </c>
-      <c r="H123" s="3">
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="I123" s="4">
-        <f t="shared" si="1"/>
-        <v>9.0909090909090939E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A124" s="2"/>
+      <c r="J123">
+        <v>0.9090909090909091</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="1"/>
       <c r="B124" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C124">
         <v>400</v>
@@ -4424,23 +4602,25 @@
       <c r="F124">
         <v>380</v>
       </c>
-      <c r="G124" s="3">
+      <c r="G124" t="s">
+        <v>140</v>
+      </c>
+      <c r="H124">
+        <v>388</v>
+      </c>
+      <c r="I124">
         <v>1.089330024813896</v>
       </c>
-      <c r="H124" s="3">
-        <v>0.94292803970223327</v>
-      </c>
-      <c r="I124" s="4">
-        <f t="shared" si="1"/>
-        <v>0.14640198511166269</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J124">
+        <v>0.9429280397022333</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C125">
         <v>464</v>
@@ -4449,28 +4629,30 @@
         <v>465</v>
       </c>
       <c r="E125">
-        <v>549</v>
+        <v>584</v>
       </c>
       <c r="F125">
         <v>446</v>
       </c>
-      <c r="G125" s="3">
-        <v>1.180645161290323</v>
-      </c>
-      <c r="H125" s="3">
-        <v>0.95913978494623653</v>
-      </c>
-      <c r="I125" s="4">
-        <f t="shared" si="1"/>
-        <v>0.22150537634408651</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A126" s="2" t="s">
+      <c r="G125" t="s">
+        <v>141</v>
+      </c>
+      <c r="H125">
+        <v>523</v>
+      </c>
+      <c r="I125">
+        <v>1.255913978494624</v>
+      </c>
+      <c r="J125">
+        <v>0.9591397849462365</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C126">
         <v>12950</v>
@@ -4484,21 +4666,17 @@
       <c r="F126">
         <v>13380</v>
       </c>
-      <c r="G126" s="3">
-        <v>1.1838235294117649</v>
-      </c>
-      <c r="H126" s="3">
-        <v>0.98382352941176465</v>
-      </c>
-      <c r="I126" s="4">
-        <f t="shared" si="1"/>
-        <v>0.20000000000000029</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A127" s="2"/>
+      <c r="I126">
+        <v>1.183823529411765</v>
+      </c>
+      <c r="J126">
+        <v>0.9838235294117647</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="1"/>
       <c r="B127" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C127">
         <v>31300</v>
@@ -4512,21 +4690,17 @@
       <c r="F127">
         <v>26000</v>
       </c>
-      <c r="G127" s="3">
-        <v>1.0015974440894571</v>
-      </c>
-      <c r="H127" s="3">
-        <v>0.83067092651757191</v>
-      </c>
-      <c r="I127" s="4">
-        <f t="shared" si="1"/>
-        <v>0.17092651757188515</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A128" s="2"/>
+      <c r="I127">
+        <v>1.001597444089457</v>
+      </c>
+      <c r="J127">
+        <v>0.8306709265175719</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="1"/>
       <c r="B128" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C128">
         <v>9550</v>
@@ -4540,21 +4714,17 @@
       <c r="F128">
         <v>9160</v>
       </c>
-      <c r="G128" s="3">
+      <c r="I128">
         <v>1.044943820224719</v>
       </c>
-      <c r="H128" s="3">
-        <v>0.93564862104187951</v>
-      </c>
-      <c r="I128" s="4">
-        <f t="shared" si="1"/>
-        <v>0.10929519918283948</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A129" s="2"/>
+      <c r="J128">
+        <v>0.9356486210418795</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="1"/>
       <c r="B129" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C129">
         <v>477</v>
@@ -4563,26 +4733,22 @@
         <v>477</v>
       </c>
       <c r="E129">
-        <v>491</v>
+        <v>584</v>
       </c>
       <c r="F129">
         <v>446</v>
       </c>
-      <c r="G129" s="3">
-        <v>1.029350104821803</v>
-      </c>
-      <c r="H129" s="3">
-        <v>0.93501048218029348</v>
-      </c>
-      <c r="I129" s="4">
-        <f t="shared" si="1"/>
-        <v>9.4339622641509524E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A130" s="2"/>
+      <c r="I129">
+        <v>1.224318658280922</v>
+      </c>
+      <c r="J129">
+        <v>0.9350104821802935</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="1"/>
       <c r="B130" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C130">
         <v>13650</v>
@@ -4596,23 +4762,19 @@
       <c r="F130">
         <v>13450</v>
       </c>
-      <c r="G130" s="3">
-        <v>1.1383601756954611</v>
-      </c>
-      <c r="H130" s="3">
-        <v>0.98462664714494874</v>
-      </c>
-      <c r="I130" s="4">
-        <f t="shared" si="1"/>
-        <v>0.15373352855051237</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A131" s="2" t="s">
+      <c r="I130">
+        <v>1.138360175695461</v>
+      </c>
+      <c r="J130">
+        <v>0.9846266471449487</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C131">
         <v>2270</v>
@@ -4624,23 +4786,19 @@
         <v>2350</v>
       </c>
       <c r="F131">
-        <v>2230</v>
-      </c>
-      <c r="G131" s="3">
+        <v>2210</v>
+      </c>
+      <c r="I131">
         <v>1.035242290748899</v>
       </c>
-      <c r="H131" s="3">
-        <v>0.98237885462555063</v>
-      </c>
-      <c r="I131" s="4">
-        <f t="shared" ref="I131:I137" si="2">G131-H131</f>
-        <v>5.2863436123348317E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A132" s="2"/>
+      <c r="J131">
+        <v>0.973568281938326</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="1"/>
       <c r="B132" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C132">
         <v>765</v>
@@ -4654,21 +4812,17 @@
       <c r="F132">
         <v>729</v>
       </c>
-      <c r="G132" s="3">
-        <v>1.1027308192457741</v>
-      </c>
-      <c r="H132" s="3">
-        <v>0.94798439531859557</v>
-      </c>
-      <c r="I132" s="4">
-        <f t="shared" si="2"/>
-        <v>0.15474642392717852</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A133" s="2"/>
+      <c r="I132">
+        <v>1.102730819245774</v>
+      </c>
+      <c r="J132">
+        <v>0.9479843953185956</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="1"/>
       <c r="B133" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C133">
         <v>3105</v>
@@ -4680,23 +4834,19 @@
         <v>3630</v>
       </c>
       <c r="F133">
-        <v>3110</v>
-      </c>
-      <c r="G133" s="3">
+        <v>2985</v>
+      </c>
+      <c r="I133">
         <v>1.127329192546584</v>
       </c>
-      <c r="H133" s="3">
-        <v>0.96583850931677018</v>
-      </c>
-      <c r="I133" s="4">
-        <f t="shared" si="2"/>
-        <v>0.16149068322981386</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A134" s="2"/>
+      <c r="J133">
+        <v>0.9270186335403726</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="1"/>
       <c r="B134" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C134">
         <v>12620</v>
@@ -4708,23 +4858,19 @@
         <v>13050</v>
       </c>
       <c r="F134">
-        <v>12130</v>
-      </c>
-      <c r="G134" s="3">
-        <v>1.0448358686949559</v>
-      </c>
-      <c r="H134" s="3">
-        <v>0.97117694155324263</v>
-      </c>
-      <c r="I134" s="4">
-        <f t="shared" si="2"/>
-        <v>7.3658927141713293E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A135" s="2"/>
+        <v>11950</v>
+      </c>
+      <c r="I134">
+        <v>1.044835868694956</v>
+      </c>
+      <c r="J134">
+        <v>0.9567654123298639</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="1"/>
       <c r="B135" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C135">
         <v>8500</v>
@@ -4738,21 +4884,17 @@
       <c r="F135">
         <v>8150</v>
       </c>
-      <c r="G135" s="3">
-        <v>1.0366430260047279</v>
-      </c>
-      <c r="H135" s="3">
-        <v>0.96335697399527187</v>
-      </c>
-      <c r="I135" s="4">
-        <f t="shared" si="2"/>
-        <v>7.3286052009456037E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A136" s="2"/>
+      <c r="I135">
+        <v>1.036643026004728</v>
+      </c>
+      <c r="J135">
+        <v>0.9633569739952719</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="1"/>
       <c r="B136" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C136">
         <v>140400</v>
@@ -4766,23 +4908,19 @@
       <c r="F136">
         <v>134100</v>
       </c>
-      <c r="G136" s="3">
+      <c r="I136">
         <v>1</v>
       </c>
-      <c r="H136" s="3">
-        <v>0.93710691823899372</v>
-      </c>
-      <c r="I136" s="4">
-        <f t="shared" si="2"/>
-        <v>6.2893081761006275E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J136">
+        <v>0.9371069182389937</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C137">
         <v>3195</v>
@@ -4794,47 +4932,295 @@
         <v>3415</v>
       </c>
       <c r="F137">
-        <v>3170</v>
-      </c>
-      <c r="G137" s="3">
+        <v>3150</v>
+      </c>
+      <c r="I137">
         <v>1.077287066246057</v>
       </c>
-      <c r="H137" s="3">
+      <c r="J137">
+        <v>0.9936908517350158</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C138">
+        <v>6760</v>
+      </c>
+      <c r="D138">
+        <v>6530</v>
+      </c>
+      <c r="E138">
+        <v>6720</v>
+      </c>
+      <c r="F138">
+        <v>6530</v>
+      </c>
+      <c r="I138">
+        <v>1.029096477794793</v>
+      </c>
+      <c r="J138">
         <v>1</v>
       </c>
-      <c r="I137" s="4">
-        <f t="shared" si="2"/>
-        <v>7.7287066246056968E-2</v>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C139">
+        <v>3285</v>
+      </c>
+      <c r="D139">
+        <v>3215</v>
+      </c>
+      <c r="E139">
+        <v>3265</v>
+      </c>
+      <c r="F139">
+        <v>3150</v>
+      </c>
+      <c r="I139">
+        <v>1.015552099533437</v>
+      </c>
+      <c r="J139">
+        <v>0.9797822706065319</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C140">
+        <v>4200</v>
+      </c>
+      <c r="D140">
+        <v>4190</v>
+      </c>
+      <c r="E140">
+        <v>4305</v>
+      </c>
+      <c r="F140">
+        <v>4110</v>
+      </c>
+      <c r="I140">
+        <v>1.02744630071599</v>
+      </c>
+      <c r="J140">
+        <v>0.9809069212410502</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C141">
+        <v>22300</v>
+      </c>
+      <c r="D141">
+        <v>23500</v>
+      </c>
+      <c r="E141">
+        <v>26550</v>
+      </c>
+      <c r="F141">
+        <v>23300</v>
+      </c>
+      <c r="I141">
+        <v>1.129787234042553</v>
+      </c>
+      <c r="J141">
+        <v>0.9914893617021276</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C142">
+        <v>6410</v>
+      </c>
+      <c r="D142">
+        <v>6340</v>
+      </c>
+      <c r="E142">
+        <v>6360</v>
+      </c>
+      <c r="F142">
+        <v>6200</v>
+      </c>
+      <c r="I142">
+        <v>1.003154574132492</v>
+      </c>
+      <c r="J142">
+        <v>0.9779179810725552</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C143">
+        <v>7640</v>
+      </c>
+      <c r="D143">
+        <v>7510</v>
+      </c>
+      <c r="E143">
+        <v>7980</v>
+      </c>
+      <c r="F143">
+        <v>7450</v>
+      </c>
+      <c r="I143">
+        <v>1.062583222370173</v>
+      </c>
+      <c r="J143">
+        <v>0.9920106524633822</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C144">
+        <v>8560</v>
+      </c>
+      <c r="D144">
+        <v>8470</v>
+      </c>
+      <c r="E144">
+        <v>8500</v>
+      </c>
+      <c r="F144">
+        <v>8310</v>
+      </c>
+      <c r="I144">
+        <v>1.003541912632822</v>
+      </c>
+      <c r="J144">
+        <v>0.9811097992916175</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C145">
+        <v>21450</v>
+      </c>
+      <c r="D145">
+        <v>21300</v>
+      </c>
+      <c r="E145">
+        <v>21800</v>
+      </c>
+      <c r="F145">
+        <v>21200</v>
+      </c>
+      <c r="I145">
+        <v>1.023474178403756</v>
+      </c>
+      <c r="J145">
+        <v>0.9953051643192489</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C146">
+        <v>7730</v>
+      </c>
+      <c r="D146">
+        <v>7530</v>
+      </c>
+      <c r="E146">
+        <v>7620</v>
+      </c>
+      <c r="F146">
+        <v>7470</v>
+      </c>
+      <c r="I146">
+        <v>1.01195219123506</v>
+      </c>
+      <c r="J146">
+        <v>0.9920318725099602</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C147">
+        <v>9510</v>
+      </c>
+      <c r="D147">
+        <v>10400</v>
+      </c>
+      <c r="E147">
+        <v>11980</v>
+      </c>
+      <c r="F147">
+        <v>10250</v>
+      </c>
+      <c r="I147">
+        <v>1.151923076923077</v>
+      </c>
+      <c r="J147">
+        <v>0.9855769230769231</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C148">
+        <v>1164</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A120:A124"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A131:A136"/>
+  <mergeCells count="24">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="A14:A23"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A94:A100"/>
     <mergeCell ref="A101:A109"/>
     <mergeCell ref="A110:A111"/>
     <mergeCell ref="A112:A115"/>
     <mergeCell ref="A116:A117"/>
     <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A77:A82"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A94:A100"/>
-    <mergeCell ref="A42:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A61:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="A14:A23"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A131:A136"/>
+    <mergeCell ref="A138:A147"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/hyungbong.xlsx
+++ b/hyungbong.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="162">
   <si>
     <t>Close</t>
   </si>
@@ -139,6 +139,9 @@
     <t>2023-02-17</t>
   </si>
   <si>
+    <t>2023-02-20</t>
+  </si>
+  <si>
     <t>CBI</t>
   </si>
   <si>
@@ -476,6 +479,27 @@
   </si>
   <si>
     <t>엘컴텍</t>
+  </si>
+  <si>
+    <t>다원시스</t>
+  </si>
+  <si>
+    <t>라이프시맨틱스</t>
+  </si>
+  <si>
+    <t>로보스타</t>
+  </si>
+  <si>
+    <t>알체라</t>
+  </si>
+  <si>
+    <t>와이더플래닛</t>
+  </si>
+  <si>
+    <t>한컴위드</t>
+  </si>
+  <si>
+    <t>휴림네트웍스</t>
   </si>
 </sst>
 </file>
@@ -833,7 +857,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J148"/>
+  <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -876,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>426</v>
@@ -891,7 +915,7 @@
         <v>376</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>398</v>
@@ -906,7 +930,7 @@
     <row r="3" spans="1:10">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>630</v>
@@ -921,7 +945,7 @@
         <v>590</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3">
         <v>607</v>
@@ -936,7 +960,7 @@
     <row r="4" spans="1:10">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <v>9770</v>
@@ -951,7 +975,7 @@
         <v>9560</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>11100</v>
@@ -968,7 +992,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>1883</v>
@@ -983,7 +1007,7 @@
         <v>1735</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <v>2715</v>
@@ -998,7 +1022,7 @@
     <row r="6" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>15700</v>
@@ -1013,7 +1037,7 @@
         <v>14600</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>14800</v>
@@ -1028,7 +1052,7 @@
     <row r="7" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>4705</v>
@@ -1043,7 +1067,7 @@
         <v>4675</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7">
         <v>5100</v>
@@ -1058,7 +1082,7 @@
     <row r="8" spans="1:10">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>3515</v>
@@ -1073,7 +1097,7 @@
         <v>3445</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8">
         <v>3895</v>
@@ -1088,7 +1112,7 @@
     <row r="9" spans="1:10">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>5880</v>
@@ -1103,7 +1127,7 @@
         <v>5600</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9">
         <v>5720</v>
@@ -1118,7 +1142,7 @@
     <row r="10" spans="1:10">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>4910</v>
@@ -1133,7 +1157,7 @@
         <v>4680</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H10">
         <v>5020</v>
@@ -1148,7 +1172,7 @@
     <row r="11" spans="1:10">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11">
         <v>5320</v>
@@ -1163,7 +1187,7 @@
         <v>4510</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11">
         <v>5060</v>
@@ -1178,7 +1202,7 @@
     <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>4080</v>
@@ -1193,7 +1217,7 @@
         <v>3775</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H12">
         <v>4255</v>
@@ -1208,7 +1232,7 @@
     <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13">
         <v>356</v>
@@ -1223,7 +1247,7 @@
         <v>349</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H13">
         <v>384</v>
@@ -1240,7 +1264,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14">
         <v>1750</v>
@@ -1255,7 +1279,7 @@
         <v>1615</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H14">
         <v>1705</v>
@@ -1270,7 +1294,7 @@
     <row r="15" spans="1:10">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15">
         <v>8410</v>
@@ -1285,7 +1309,7 @@
         <v>8300</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H15">
         <v>8720</v>
@@ -1300,7 +1324,7 @@
     <row r="16" spans="1:10">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16">
         <v>5330</v>
@@ -1315,7 +1339,7 @@
         <v>5250</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H16">
         <v>5500</v>
@@ -1330,7 +1354,7 @@
     <row r="17" spans="1:10">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17">
         <v>2505</v>
@@ -1345,7 +1369,7 @@
         <v>2565</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H17">
         <v>2860</v>
@@ -1360,7 +1384,7 @@
     <row r="18" spans="1:10">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18">
         <v>1295</v>
@@ -1375,7 +1399,7 @@
         <v>1270</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H18">
         <v>1380</v>
@@ -1390,7 +1414,7 @@
     <row r="19" spans="1:10">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19">
         <v>2505</v>
@@ -1405,7 +1429,7 @@
         <v>2405</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H19">
         <v>2600</v>
@@ -1420,7 +1444,7 @@
     <row r="20" spans="1:10">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20">
         <v>16100</v>
@@ -1435,7 +1459,7 @@
         <v>15950</v>
       </c>
       <c r="G20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H20">
         <v>17000</v>
@@ -1450,7 +1474,7 @@
     <row r="21" spans="1:10">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21">
         <v>6170</v>
@@ -1465,7 +1489,7 @@
         <v>5840</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H21">
         <v>6340</v>
@@ -1480,7 +1504,7 @@
     <row r="22" spans="1:10">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22">
         <v>13900</v>
@@ -1495,7 +1519,7 @@
         <v>13300</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H22">
         <v>14500</v>
@@ -1510,7 +1534,7 @@
     <row r="23" spans="1:10">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23">
         <v>3515</v>
@@ -1525,7 +1549,7 @@
         <v>3410</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H23">
         <v>3620</v>
@@ -1542,7 +1566,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C24">
         <v>3870</v>
@@ -1557,7 +1581,7 @@
         <v>3800</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H24">
         <v>4135</v>
@@ -1572,7 +1596,7 @@
     <row r="25" spans="1:10">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C25">
         <v>627</v>
@@ -1587,7 +1611,7 @@
         <v>613</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H25">
         <v>666</v>
@@ -1602,7 +1626,7 @@
     <row r="26" spans="1:10">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C26">
         <v>2555</v>
@@ -1617,7 +1641,7 @@
         <v>2535</v>
       </c>
       <c r="G26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H26">
         <v>2685</v>
@@ -1632,7 +1656,7 @@
     <row r="27" spans="1:10">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27">
         <v>2445</v>
@@ -1647,7 +1671,7 @@
         <v>2405</v>
       </c>
       <c r="G27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H27">
         <v>3290</v>
@@ -1662,7 +1686,7 @@
     <row r="28" spans="1:10">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28">
         <v>5140</v>
@@ -1677,7 +1701,7 @@
         <v>5030</v>
       </c>
       <c r="G28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H28">
         <v>5700</v>
@@ -1692,7 +1716,7 @@
     <row r="29" spans="1:10">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29">
         <v>4455</v>
@@ -1707,7 +1731,7 @@
         <v>4385</v>
       </c>
       <c r="G29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H29">
         <v>4965</v>
@@ -1722,7 +1746,7 @@
     <row r="30" spans="1:10">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30">
         <v>1210</v>
@@ -1737,7 +1761,7 @@
         <v>1195</v>
       </c>
       <c r="G30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H30">
         <v>1260</v>
@@ -1752,7 +1776,7 @@
     <row r="31" spans="1:10">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31">
         <v>5310</v>
@@ -1767,7 +1791,7 @@
         <v>5340</v>
       </c>
       <c r="G31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H31">
         <v>6230</v>
@@ -1784,7 +1808,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32">
         <v>3640</v>
@@ -1799,7 +1823,7 @@
         <v>3615</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H32">
         <v>3700</v>
@@ -1814,7 +1838,7 @@
     <row r="33" spans="1:10">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C33">
         <v>312</v>
@@ -1829,7 +1853,7 @@
         <v>306</v>
       </c>
       <c r="G33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H33">
         <v>330</v>
@@ -1844,7 +1868,7 @@
     <row r="34" spans="1:10">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34">
         <v>4085</v>
@@ -1859,7 +1883,7 @@
         <v>4035</v>
       </c>
       <c r="G34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H34">
         <v>4215</v>
@@ -1874,7 +1898,7 @@
     <row r="35" spans="1:10">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35">
         <v>44350</v>
@@ -1889,7 +1913,7 @@
         <v>44600</v>
       </c>
       <c r="G35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H35">
         <v>45200</v>
@@ -1904,7 +1928,7 @@
     <row r="36" spans="1:10">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36">
         <v>78400</v>
@@ -1919,7 +1943,7 @@
         <v>78000</v>
       </c>
       <c r="G36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H36">
         <v>84600</v>
@@ -1934,7 +1958,7 @@
     <row r="37" spans="1:10">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C37">
         <v>2510</v>
@@ -1949,7 +1973,7 @@
         <v>2510</v>
       </c>
       <c r="G37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H37">
         <v>2555</v>
@@ -1964,7 +1988,7 @@
     <row r="38" spans="1:10">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38">
         <v>11400</v>
@@ -1979,7 +2003,7 @@
         <v>11250</v>
       </c>
       <c r="G38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H38">
         <v>11650</v>
@@ -1994,7 +2018,7 @@
     <row r="39" spans="1:10">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39">
         <v>3125</v>
@@ -2009,7 +2033,7 @@
         <v>3095</v>
       </c>
       <c r="G39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H39">
         <v>3180</v>
@@ -2024,7 +2048,7 @@
     <row r="40" spans="1:10">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C40">
         <v>10650</v>
@@ -2039,7 +2063,7 @@
         <v>10250</v>
       </c>
       <c r="G40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H40">
         <v>10350</v>
@@ -2054,7 +2078,7 @@
     <row r="41" spans="1:10">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41">
         <v>1130</v>
@@ -2069,7 +2093,7 @@
         <v>1125</v>
       </c>
       <c r="G41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H41">
         <v>1180</v>
@@ -2086,7 +2110,7 @@
         <v>13</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C42">
         <v>7910</v>
@@ -2101,7 +2125,7 @@
         <v>7750</v>
       </c>
       <c r="G42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H42">
         <v>7820</v>
@@ -2116,7 +2140,7 @@
     <row r="43" spans="1:10">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C43">
         <v>12600</v>
@@ -2131,7 +2155,7 @@
         <v>11800</v>
       </c>
       <c r="G43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H43">
         <v>12100</v>
@@ -2146,7 +2170,7 @@
     <row r="44" spans="1:10">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C44">
         <v>28300</v>
@@ -2161,7 +2185,7 @@
         <v>27450</v>
       </c>
       <c r="G44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H44">
         <v>35450</v>
@@ -2176,7 +2200,7 @@
     <row r="45" spans="1:10">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45">
         <v>2585</v>
@@ -2191,7 +2215,7 @@
         <v>2510</v>
       </c>
       <c r="G45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H45">
         <v>2620</v>
@@ -2206,7 +2230,7 @@
     <row r="46" spans="1:10">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C46">
         <v>2745</v>
@@ -2221,7 +2245,7 @@
         <v>2625</v>
       </c>
       <c r="G46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H46">
         <v>2700</v>
@@ -2236,7 +2260,7 @@
     <row r="47" spans="1:10">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C47">
         <v>717</v>
@@ -2251,7 +2275,7 @@
         <v>713</v>
       </c>
       <c r="G47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H47">
         <v>790</v>
@@ -2266,7 +2290,7 @@
     <row r="48" spans="1:10">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C48">
         <v>850</v>
@@ -2281,7 +2305,7 @@
         <v>827</v>
       </c>
       <c r="G48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H48">
         <v>949</v>
@@ -2296,7 +2320,7 @@
     <row r="49" spans="1:10">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C49">
         <v>1345</v>
@@ -2311,7 +2335,7 @@
         <v>1330</v>
       </c>
       <c r="G49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H49">
         <v>1380</v>
@@ -2326,7 +2350,7 @@
     <row r="50" spans="1:10">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C50">
         <v>28000</v>
@@ -2341,7 +2365,7 @@
         <v>28150</v>
       </c>
       <c r="G50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H50">
         <v>32000</v>
@@ -2356,7 +2380,7 @@
     <row r="51" spans="1:10">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C51">
         <v>9320</v>
@@ -2371,7 +2395,7 @@
         <v>9260</v>
       </c>
       <c r="G51" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H51">
         <v>10250</v>
@@ -2388,7 +2412,7 @@
         <v>14</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C52">
         <v>18500</v>
@@ -2403,7 +2427,7 @@
         <v>18350</v>
       </c>
       <c r="G52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H52">
         <v>19650</v>
@@ -2418,7 +2442,7 @@
     <row r="53" spans="1:10">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C53">
         <v>1005</v>
@@ -2433,7 +2457,7 @@
         <v>975</v>
       </c>
       <c r="G53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H53">
         <v>1090</v>
@@ -2448,7 +2472,7 @@
     <row r="54" spans="1:10">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C54">
         <v>6936</v>
@@ -2463,7 +2487,7 @@
         <v>6439</v>
       </c>
       <c r="G54" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H54">
         <v>6440</v>
@@ -2480,7 +2504,7 @@
         <v>15</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C55">
         <v>405</v>
@@ -2495,7 +2519,7 @@
         <v>370</v>
       </c>
       <c r="G55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H55">
         <v>384</v>
@@ -2510,7 +2534,7 @@
     <row r="56" spans="1:10">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C56">
         <v>82500</v>
@@ -2525,7 +2549,7 @@
         <v>80100</v>
       </c>
       <c r="G56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H56">
         <v>80300</v>
@@ -2540,7 +2564,7 @@
     <row r="57" spans="1:10">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57">
         <v>2600</v>
@@ -2555,7 +2579,7 @@
         <v>2545</v>
       </c>
       <c r="G57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H57">
         <v>2560</v>
@@ -2570,7 +2594,7 @@
     <row r="58" spans="1:10">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C58">
         <v>2300</v>
@@ -2585,7 +2609,7 @@
         <v>2250</v>
       </c>
       <c r="G58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H58">
         <v>2300</v>
@@ -2600,7 +2624,7 @@
     <row r="59" spans="1:10">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C59">
         <v>1180</v>
@@ -2615,7 +2639,7 @@
         <v>1165</v>
       </c>
       <c r="G59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H59">
         <v>1220</v>
@@ -2632,7 +2656,7 @@
         <v>16</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C60">
         <v>820</v>
@@ -2647,7 +2671,7 @@
         <v>763</v>
       </c>
       <c r="G60" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H60">
         <v>764</v>
@@ -2664,7 +2688,7 @@
         <v>17</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C61">
         <v>856</v>
@@ -2679,7 +2703,7 @@
         <v>755</v>
       </c>
       <c r="G61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H61">
         <v>767</v>
@@ -2694,7 +2718,7 @@
     <row r="62" spans="1:10">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C62">
         <v>1150</v>
@@ -2709,7 +2733,7 @@
         <v>1070</v>
       </c>
       <c r="G62" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H62">
         <v>1090</v>
@@ -2724,7 +2748,7 @@
     <row r="63" spans="1:10">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C63">
         <v>4225</v>
@@ -2739,7 +2763,7 @@
         <v>4165</v>
       </c>
       <c r="G63" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H63">
         <v>4660</v>
@@ -2754,7 +2778,7 @@
     <row r="64" spans="1:10">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C64">
         <v>12750</v>
@@ -2769,7 +2793,7 @@
         <v>11250</v>
       </c>
       <c r="G64" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H64">
         <v>11500</v>
@@ -2784,7 +2808,7 @@
     <row r="65" spans="1:10">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C65">
         <v>8300</v>
@@ -2799,7 +2823,7 @@
         <v>8230</v>
       </c>
       <c r="G65" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H65">
         <v>8620</v>
@@ -2814,7 +2838,7 @@
     <row r="66" spans="1:10">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C66">
         <v>814</v>
@@ -2829,7 +2853,7 @@
         <v>775</v>
       </c>
       <c r="G66" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H66">
         <v>782</v>
@@ -2846,7 +2870,7 @@
         <v>18</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C67">
         <v>15600</v>
@@ -2861,7 +2885,7 @@
         <v>15150</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67">
         <v>16400</v>
@@ -2876,7 +2900,7 @@
     <row r="68" spans="1:10">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C68">
         <v>6980</v>
@@ -2891,7 +2915,7 @@
         <v>6470</v>
       </c>
       <c r="G68" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H68">
         <v>6540</v>
@@ -2906,7 +2930,7 @@
     <row r="69" spans="1:10">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C69">
         <v>2620</v>
@@ -2921,7 +2945,7 @@
         <v>2525</v>
       </c>
       <c r="G69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H69">
         <v>2975</v>
@@ -2936,7 +2960,7 @@
     <row r="70" spans="1:10">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C70">
         <v>2720</v>
@@ -2951,7 +2975,7 @@
         <v>2650</v>
       </c>
       <c r="G70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H70">
         <v>2730</v>
@@ -2968,7 +2992,7 @@
         <v>19</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C71">
         <v>13650</v>
@@ -2983,7 +3007,7 @@
         <v>13100</v>
       </c>
       <c r="G71" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H71">
         <v>13990</v>
@@ -3000,7 +3024,7 @@
         <v>20</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C72">
         <v>5180</v>
@@ -3015,7 +3039,7 @@
         <v>4990</v>
       </c>
       <c r="G72" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H72">
         <v>5000</v>
@@ -3030,7 +3054,7 @@
     <row r="73" spans="1:10">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C73">
         <v>3580</v>
@@ -3045,7 +3069,7 @@
         <v>3310</v>
       </c>
       <c r="G73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H73">
         <v>3410</v>
@@ -3060,7 +3084,7 @@
     <row r="74" spans="1:10">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C74">
         <v>1090</v>
@@ -3075,7 +3099,7 @@
         <v>1003</v>
       </c>
       <c r="G74" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H74">
         <v>1041</v>
@@ -3090,7 +3114,7 @@
     <row r="75" spans="1:10">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C75">
         <v>6651</v>
@@ -3105,7 +3129,7 @@
         <v>6559</v>
       </c>
       <c r="G75" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H75">
         <v>7553</v>
@@ -3122,7 +3146,7 @@
         <v>21</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C76">
         <v>6890</v>
@@ -3137,7 +3161,7 @@
         <v>6816</v>
       </c>
       <c r="G76" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H76">
         <v>7019</v>
@@ -3154,7 +3178,7 @@
         <v>22</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C77">
         <v>12850</v>
@@ -3169,7 +3193,7 @@
         <v>12410</v>
       </c>
       <c r="G77" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H77">
         <v>13720</v>
@@ -3184,7 +3208,7 @@
     <row r="78" spans="1:10">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C78">
         <v>8370</v>
@@ -3199,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H78">
         <v>7800</v>
@@ -3214,7 +3238,7 @@
     <row r="79" spans="1:10">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C79">
         <v>19700</v>
@@ -3229,7 +3253,7 @@
         <v>19580</v>
       </c>
       <c r="G79" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H79">
         <v>20050</v>
@@ -3244,7 +3268,7 @@
     <row r="80" spans="1:10">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C80">
         <v>10250</v>
@@ -3259,7 +3283,7 @@
         <v>9050</v>
       </c>
       <c r="G80" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H80">
         <v>9370</v>
@@ -3274,7 +3298,7 @@
     <row r="81" spans="1:10">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C81">
         <v>1527</v>
@@ -3289,7 +3313,7 @@
         <v>1488</v>
       </c>
       <c r="G81" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H81">
         <v>1497</v>
@@ -3304,7 +3328,7 @@
     <row r="82" spans="1:10">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C82">
         <v>5850</v>
@@ -3319,7 +3343,7 @@
         <v>5530</v>
       </c>
       <c r="G82" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H82">
         <v>5680</v>
@@ -3336,7 +3360,7 @@
         <v>23</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C83">
         <v>7760</v>
@@ -3351,7 +3375,7 @@
         <v>7550</v>
       </c>
       <c r="G83" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H83">
         <v>7640</v>
@@ -3366,7 +3390,7 @@
     <row r="84" spans="1:10">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C84">
         <v>3375</v>
@@ -3381,7 +3405,7 @@
         <v>3180</v>
       </c>
       <c r="G84" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H84">
         <v>3320</v>
@@ -3396,7 +3420,7 @@
     <row r="85" spans="1:10">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C85">
         <v>1563</v>
@@ -3411,7 +3435,7 @@
         <v>1488</v>
       </c>
       <c r="G85" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H85">
         <v>1496</v>
@@ -3428,7 +3452,7 @@
         <v>24</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C86">
         <v>13270</v>
@@ -3443,7 +3467,7 @@
         <v>13030</v>
       </c>
       <c r="G86" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H86">
         <v>14520</v>
@@ -3460,7 +3484,7 @@
         <v>25</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C87">
         <v>1922</v>
@@ -3475,7 +3499,7 @@
         <v>1890</v>
       </c>
       <c r="G87" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H87">
         <v>1894</v>
@@ -3490,7 +3514,7 @@
     <row r="88" spans="1:10">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C88">
         <v>3410</v>
@@ -3505,7 +3529,7 @@
         <v>3250</v>
       </c>
       <c r="G88" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H88">
         <v>3440</v>
@@ -3520,7 +3544,7 @@
     <row r="89" spans="1:10">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C89">
         <v>889</v>
@@ -3535,7 +3559,7 @@
         <v>850</v>
       </c>
       <c r="G89" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H89">
         <v>880</v>
@@ -3550,7 +3574,7 @@
     <row r="90" spans="1:10">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C90">
         <v>1818</v>
@@ -3565,7 +3589,7 @@
         <v>1704</v>
       </c>
       <c r="G90" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H90">
         <v>2385</v>
@@ -3580,7 +3604,7 @@
     <row r="91" spans="1:10">
       <c r="A91" s="1"/>
       <c r="B91" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C91">
         <v>24900</v>
@@ -3595,7 +3619,7 @@
         <v>25650</v>
       </c>
       <c r="G91" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H91">
         <v>36600</v>
@@ -3612,7 +3636,7 @@
         <v>26</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C92">
         <v>30350</v>
@@ -3627,7 +3651,7 @@
         <v>29300</v>
       </c>
       <c r="G92" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H92">
         <v>29850</v>
@@ -3644,7 +3668,7 @@
         <v>27</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C93">
         <v>13050</v>
@@ -3659,7 +3683,7 @@
         <v>12100</v>
       </c>
       <c r="G93" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H93">
         <v>18250</v>
@@ -3676,7 +3700,7 @@
         <v>28</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C94">
         <v>1781</v>
@@ -3691,7 +3715,7 @@
         <v>1782</v>
       </c>
       <c r="G94" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H94">
         <v>2445</v>
@@ -3706,7 +3730,7 @@
     <row r="95" spans="1:10">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C95">
         <v>5360</v>
@@ -3721,7 +3745,7 @@
         <v>5240</v>
       </c>
       <c r="G95" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H95">
         <v>5310</v>
@@ -3736,7 +3760,7 @@
     <row r="96" spans="1:10">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C96">
         <v>3455</v>
@@ -3751,7 +3775,7 @@
         <v>3325</v>
       </c>
       <c r="G96" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H96">
         <v>3325</v>
@@ -3766,7 +3790,7 @@
     <row r="97" spans="1:10">
       <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C97">
         <v>4285</v>
@@ -3781,7 +3805,7 @@
         <v>4295</v>
       </c>
       <c r="G97" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H97">
         <v>4430</v>
@@ -3796,7 +3820,7 @@
     <row r="98" spans="1:10">
       <c r="A98" s="1"/>
       <c r="B98" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C98">
         <v>6470</v>
@@ -3811,7 +3835,7 @@
         <v>6490</v>
       </c>
       <c r="G98" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H98">
         <v>6600</v>
@@ -3826,7 +3850,7 @@
     <row r="99" spans="1:10">
       <c r="A99" s="1"/>
       <c r="B99" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C99">
         <v>1280</v>
@@ -3841,7 +3865,7 @@
         <v>1250</v>
       </c>
       <c r="G99" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H99">
         <v>1271</v>
@@ -3856,7 +3880,7 @@
     <row r="100" spans="1:10">
       <c r="A100" s="1"/>
       <c r="B100" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C100">
         <v>18570</v>
@@ -3871,7 +3895,7 @@
         <v>18000</v>
       </c>
       <c r="G100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H100">
         <v>18760</v>
@@ -3888,7 +3912,7 @@
         <v>29</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C101">
         <v>1022</v>
@@ -3903,7 +3927,7 @@
         <v>1000</v>
       </c>
       <c r="G101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H101">
         <v>1006</v>
@@ -3918,7 +3942,7 @@
     <row r="102" spans="1:10">
       <c r="A102" s="1"/>
       <c r="B102" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C102">
         <v>4415</v>
@@ -3933,7 +3957,7 @@
         <v>4320</v>
       </c>
       <c r="G102" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H102">
         <v>4355</v>
@@ -3948,7 +3972,7 @@
     <row r="103" spans="1:10">
       <c r="A103" s="1"/>
       <c r="B103" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C103">
         <v>3395</v>
@@ -3963,7 +3987,7 @@
         <v>3140</v>
       </c>
       <c r="G103" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H103">
         <v>3350</v>
@@ -3978,7 +4002,7 @@
     <row r="104" spans="1:10">
       <c r="A104" s="1"/>
       <c r="B104" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C104">
         <v>15050</v>
@@ -3993,7 +4017,7 @@
         <v>14710</v>
       </c>
       <c r="G104" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H104">
         <v>15030</v>
@@ -4008,7 +4032,7 @@
     <row r="105" spans="1:10">
       <c r="A105" s="1"/>
       <c r="B105" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C105">
         <v>1485</v>
@@ -4023,7 +4047,7 @@
         <v>1442</v>
       </c>
       <c r="G105" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H105">
         <v>1524</v>
@@ -4038,7 +4062,7 @@
     <row r="106" spans="1:10">
       <c r="A106" s="1"/>
       <c r="B106" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C106">
         <v>900</v>
@@ -4053,7 +4077,7 @@
         <v>869</v>
       </c>
       <c r="G106" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H106">
         <v>879</v>
@@ -4068,7 +4092,7 @@
     <row r="107" spans="1:10">
       <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C107">
         <v>3390</v>
@@ -4083,7 +4107,7 @@
         <v>3250</v>
       </c>
       <c r="G107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H107">
         <v>3285</v>
@@ -4098,7 +4122,7 @@
     <row r="108" spans="1:10">
       <c r="A108" s="1"/>
       <c r="B108" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C108">
         <v>8260</v>
@@ -4113,7 +4137,7 @@
         <v>7840</v>
       </c>
       <c r="G108" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H108">
         <v>8250</v>
@@ -4128,7 +4152,7 @@
     <row r="109" spans="1:10">
       <c r="A109" s="1"/>
       <c r="B109" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C109">
         <v>1010</v>
@@ -4143,7 +4167,7 @@
         <v>880</v>
       </c>
       <c r="G109" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H109">
         <v>914</v>
@@ -4160,7 +4184,7 @@
         <v>30</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C110">
         <v>1734</v>
@@ -4175,7 +4199,7 @@
         <v>1700</v>
       </c>
       <c r="G110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H110">
         <v>2660</v>
@@ -4190,7 +4214,7 @@
     <row r="111" spans="1:10">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C111">
         <v>1792</v>
@@ -4205,7 +4229,7 @@
         <v>1540</v>
       </c>
       <c r="G111" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H111">
         <v>1615</v>
@@ -4222,7 +4246,7 @@
         <v>31</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C112">
         <v>1260</v>
@@ -4237,7 +4261,7 @@
         <v>1185</v>
       </c>
       <c r="G112" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H112">
         <v>1191</v>
@@ -4252,7 +4276,7 @@
     <row r="113" spans="1:10">
       <c r="A113" s="1"/>
       <c r="B113" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C113">
         <v>9480</v>
@@ -4267,7 +4291,7 @@
         <v>9350</v>
       </c>
       <c r="G113" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H113">
         <v>9920</v>
@@ -4282,7 +4306,7 @@
     <row r="114" spans="1:10">
       <c r="A114" s="1"/>
       <c r="B114" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C114">
         <v>10630</v>
@@ -4297,7 +4321,7 @@
         <v>9120</v>
       </c>
       <c r="G114" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H114">
         <v>9550</v>
@@ -4312,7 +4336,7 @@
     <row r="115" spans="1:10">
       <c r="A115" s="1"/>
       <c r="B115" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C115">
         <v>10360</v>
@@ -4327,7 +4351,7 @@
         <v>10400</v>
       </c>
       <c r="G115" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H115">
         <v>11350</v>
@@ -4344,7 +4368,7 @@
         <v>32</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C116">
         <v>24350</v>
@@ -4359,7 +4383,7 @@
         <v>22000</v>
       </c>
       <c r="G116" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H116">
         <v>22550</v>
@@ -4374,7 +4398,7 @@
     <row r="117" spans="1:10">
       <c r="A117" s="1"/>
       <c r="B117" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C117">
         <v>14170</v>
@@ -4389,7 +4413,7 @@
         <v>12820</v>
       </c>
       <c r="G117" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H117">
         <v>13860</v>
@@ -4406,7 +4430,7 @@
         <v>33</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C118">
         <v>3815</v>
@@ -4421,7 +4445,7 @@
         <v>3800</v>
       </c>
       <c r="G118" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H118">
         <v>4620</v>
@@ -4436,7 +4460,7 @@
     <row r="119" spans="1:10">
       <c r="A119" s="1"/>
       <c r="B119" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C119">
         <v>10190</v>
@@ -4451,7 +4475,7 @@
         <v>9560</v>
       </c>
       <c r="G119" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H119">
         <v>9970</v>
@@ -4468,7 +4492,7 @@
         <v>34</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C120">
         <v>4740</v>
@@ -4483,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H120">
         <v>4165</v>
@@ -4498,7 +4522,7 @@
     <row r="121" spans="1:10">
       <c r="A121" s="1"/>
       <c r="B121" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C121">
         <v>3830</v>
@@ -4513,7 +4537,7 @@
         <v>3465</v>
       </c>
       <c r="G121" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H121">
         <v>3575</v>
@@ -4528,7 +4552,7 @@
     <row r="122" spans="1:10">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C122">
         <v>3125</v>
@@ -4543,7 +4567,7 @@
         <v>3010</v>
       </c>
       <c r="G122" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H122">
         <v>3050</v>
@@ -4558,7 +4582,7 @@
     <row r="123" spans="1:10">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C123">
         <v>5390</v>
@@ -4573,7 +4597,7 @@
         <v>4900</v>
       </c>
       <c r="G123" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H123">
         <v>5070</v>
@@ -4588,7 +4612,7 @@
     <row r="124" spans="1:10">
       <c r="A124" s="1"/>
       <c r="B124" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C124">
         <v>400</v>
@@ -4603,7 +4627,7 @@
         <v>380</v>
       </c>
       <c r="G124" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H124">
         <v>388</v>
@@ -4620,7 +4644,7 @@
         <v>35</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C125">
         <v>464</v>
@@ -4635,7 +4659,7 @@
         <v>446</v>
       </c>
       <c r="G125" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H125">
         <v>523</v>
@@ -4652,7 +4676,7 @@
         <v>36</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C126">
         <v>12950</v>
@@ -4665,6 +4689,12 @@
       </c>
       <c r="F126">
         <v>13380</v>
+      </c>
+      <c r="G126" t="s">
+        <v>143</v>
+      </c>
+      <c r="H126">
+        <v>14470</v>
       </c>
       <c r="I126">
         <v>1.183823529411765</v>
@@ -4676,7 +4706,7 @@
     <row r="127" spans="1:10">
       <c r="A127" s="1"/>
       <c r="B127" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C127">
         <v>31300</v>
@@ -4689,6 +4719,12 @@
       </c>
       <c r="F127">
         <v>26000</v>
+      </c>
+      <c r="G127" t="s">
+        <v>144</v>
+      </c>
+      <c r="H127">
+        <v>28050</v>
       </c>
       <c r="I127">
         <v>1.001597444089457</v>
@@ -4700,7 +4736,7 @@
     <row r="128" spans="1:10">
       <c r="A128" s="1"/>
       <c r="B128" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C128">
         <v>9550</v>
@@ -4709,13 +4745,19 @@
         <v>9790</v>
       </c>
       <c r="E128">
-        <v>10230</v>
+        <v>12020</v>
       </c>
       <c r="F128">
         <v>9160</v>
       </c>
+      <c r="G128" t="s">
+        <v>131</v>
+      </c>
+      <c r="H128">
+        <v>10580</v>
+      </c>
       <c r="I128">
-        <v>1.044943820224719</v>
+        <v>1.227783452502554</v>
       </c>
       <c r="J128">
         <v>0.9356486210418795</v>
@@ -4724,7 +4766,7 @@
     <row r="129" spans="1:10">
       <c r="A129" s="1"/>
       <c r="B129" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C129">
         <v>477</v>
@@ -4737,6 +4779,12 @@
       </c>
       <c r="F129">
         <v>446</v>
+      </c>
+      <c r="G129" t="s">
+        <v>142</v>
+      </c>
+      <c r="H129">
+        <v>505</v>
       </c>
       <c r="I129">
         <v>1.224318658280922</v>
@@ -4748,7 +4796,7 @@
     <row r="130" spans="1:10">
       <c r="A130" s="1"/>
       <c r="B130" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C130">
         <v>13650</v>
@@ -4761,6 +4809,12 @@
       </c>
       <c r="F130">
         <v>13450</v>
+      </c>
+      <c r="G130" t="s">
+        <v>134</v>
+      </c>
+      <c r="H130">
+        <v>14830</v>
       </c>
       <c r="I130">
         <v>1.138360175695461</v>
@@ -4774,7 +4828,7 @@
         <v>37</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C131">
         <v>2270</v>
@@ -4798,7 +4852,7 @@
     <row r="132" spans="1:10">
       <c r="A132" s="1"/>
       <c r="B132" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C132">
         <v>765</v>
@@ -4822,7 +4876,7 @@
     <row r="133" spans="1:10">
       <c r="A133" s="1"/>
       <c r="B133" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C133">
         <v>3105</v>
@@ -4846,7 +4900,7 @@
     <row r="134" spans="1:10">
       <c r="A134" s="1"/>
       <c r="B134" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C134">
         <v>12620</v>
@@ -4870,7 +4924,7 @@
     <row r="135" spans="1:10">
       <c r="A135" s="1"/>
       <c r="B135" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C135">
         <v>8500</v>
@@ -4879,13 +4933,13 @@
         <v>8460</v>
       </c>
       <c r="E135">
-        <v>8770</v>
+        <v>8850</v>
       </c>
       <c r="F135">
         <v>8150</v>
       </c>
       <c r="I135">
-        <v>1.036643026004728</v>
+        <v>1.046099290780142</v>
       </c>
       <c r="J135">
         <v>0.9633569739952719</v>
@@ -4894,7 +4948,7 @@
     <row r="136" spans="1:10">
       <c r="A136" s="1"/>
       <c r="B136" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C136">
         <v>140400</v>
@@ -4906,13 +4960,13 @@
         <v>143100</v>
       </c>
       <c r="F136">
-        <v>134100</v>
+        <v>133000</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136">
-        <v>0.9371069182389937</v>
+        <v>0.9294199860237596</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -4920,7 +4974,7 @@
         <v>38</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C137">
         <v>3195</v>
@@ -4932,13 +4986,13 @@
         <v>3415</v>
       </c>
       <c r="F137">
-        <v>3150</v>
+        <v>3120</v>
       </c>
       <c r="I137">
         <v>1.077287066246057</v>
       </c>
       <c r="J137">
-        <v>0.9936908517350158</v>
+        <v>0.9842271293375394</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -4946,7 +5000,7 @@
         <v>39</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C138">
         <v>6760</v>
@@ -4958,19 +5012,19 @@
         <v>6720</v>
       </c>
       <c r="F138">
-        <v>6530</v>
+        <v>6500</v>
       </c>
       <c r="I138">
         <v>1.029096477794793</v>
       </c>
       <c r="J138">
-        <v>1</v>
+        <v>0.9954058192955589</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="1"/>
       <c r="B139" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C139">
         <v>3285</v>
@@ -4982,19 +5036,19 @@
         <v>3265</v>
       </c>
       <c r="F139">
-        <v>3150</v>
+        <v>3120</v>
       </c>
       <c r="I139">
         <v>1.015552099533437</v>
       </c>
       <c r="J139">
-        <v>0.9797822706065319</v>
+        <v>0.9704510108864697</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C140">
         <v>4200</v>
@@ -5006,19 +5060,19 @@
         <v>4305</v>
       </c>
       <c r="F140">
-        <v>4110</v>
+        <v>4010</v>
       </c>
       <c r="I140">
         <v>1.02744630071599</v>
       </c>
       <c r="J140">
-        <v>0.9809069212410502</v>
+        <v>0.9570405727923628</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C141">
         <v>22300</v>
@@ -5027,13 +5081,13 @@
         <v>23500</v>
       </c>
       <c r="E141">
-        <v>26550</v>
+        <v>28300</v>
       </c>
       <c r="F141">
         <v>23300</v>
       </c>
       <c r="I141">
-        <v>1.129787234042553</v>
+        <v>1.204255319148936</v>
       </c>
       <c r="J141">
         <v>0.9914893617021276</v>
@@ -5042,7 +5096,7 @@
     <row r="142" spans="1:10">
       <c r="A142" s="1"/>
       <c r="B142" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C142">
         <v>6410</v>
@@ -5051,22 +5105,22 @@
         <v>6340</v>
       </c>
       <c r="E142">
-        <v>6360</v>
+        <v>6620</v>
       </c>
       <c r="F142">
-        <v>6200</v>
+        <v>6140</v>
       </c>
       <c r="I142">
-        <v>1.003154574132492</v>
+        <v>1.04416403785489</v>
       </c>
       <c r="J142">
-        <v>0.9779179810725552</v>
+        <v>0.9684542586750788</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="1"/>
       <c r="B143" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C143">
         <v>7640</v>
@@ -5090,7 +5144,7 @@
     <row r="144" spans="1:10">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C144">
         <v>8560</v>
@@ -5099,22 +5153,22 @@
         <v>8470</v>
       </c>
       <c r="E144">
-        <v>8500</v>
+        <v>8850</v>
       </c>
       <c r="F144">
-        <v>8310</v>
+        <v>8190</v>
       </c>
       <c r="I144">
-        <v>1.003541912632822</v>
+        <v>1.044864226682408</v>
       </c>
       <c r="J144">
-        <v>0.9811097992916175</v>
+        <v>0.9669421487603306</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="1"/>
       <c r="B145" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C145">
         <v>21450</v>
@@ -5126,19 +5180,19 @@
         <v>21800</v>
       </c>
       <c r="F145">
-        <v>21200</v>
+        <v>20750</v>
       </c>
       <c r="I145">
         <v>1.023474178403756</v>
       </c>
       <c r="J145">
-        <v>0.9953051643192489</v>
+        <v>0.9741784037558685</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="1"/>
       <c r="B146" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C146">
         <v>7730</v>
@@ -5147,22 +5201,22 @@
         <v>7530</v>
       </c>
       <c r="E146">
-        <v>7620</v>
+        <v>7730</v>
       </c>
       <c r="F146">
-        <v>7470</v>
+        <v>7400</v>
       </c>
       <c r="I146">
-        <v>1.01195219123506</v>
+        <v>1.026560424966799</v>
       </c>
       <c r="J146">
-        <v>0.9920318725099602</v>
+        <v>0.9827357237715804</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="1"/>
       <c r="B147" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C147">
         <v>9510</v>
@@ -5188,14 +5242,121 @@
         <v>40</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C148">
         <v>1164</v>
       </c>
+      <c r="D148">
+        <v>1165</v>
+      </c>
+      <c r="E148">
+        <v>1185</v>
+      </c>
+      <c r="F148">
+        <v>1163</v>
+      </c>
+      <c r="I148">
+        <v>1.017167381974249</v>
+      </c>
+      <c r="J148">
+        <v>0.9982832618025751</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C149">
+        <v>12510</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C150">
+        <v>14960</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C151">
+        <v>5570</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C152">
+        <v>28900</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C153">
+        <v>28050</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C154">
+        <v>15130</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C155">
+        <v>12620</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C156">
+        <v>7080</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C157">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C158">
+        <v>825</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A13"/>
     <mergeCell ref="A14:A23"/>
@@ -5220,6 +5381,7 @@
     <mergeCell ref="A126:A130"/>
     <mergeCell ref="A131:A136"/>
     <mergeCell ref="A138:A147"/>
+    <mergeCell ref="A149:A158"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
